--- a/pythonResults/compiledData.xlsx
+++ b/pythonResults/compiledData.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\Desktop\Computer Networks Project - Semester 5\Repo\Computer-Networks-Project\pythonResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{095DAB92-9D5D-4BAC-90C7-D9C2342BA39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB6D0BAA-1434-4863-989B-9D32C3637ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Values" sheetId="1" r:id="rId1"/>
     <sheet name="Graphs" sheetId="2" r:id="rId2"/>
-    <sheet name="Optimal Window SIze+Packet SIze" sheetId="3" r:id="rId3"/>
+    <sheet name="Optimal Window Size+Packet SIze" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="29">
   <si>
     <t>Accuracy Parameters obtained from Machine Learning algorithms run using Python</t>
   </si>
@@ -107,11 +107,14 @@
   <si>
     <t>Total Rank</t>
   </si>
+  <si>
+    <t>Default</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,7 +211,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -305,6 +308,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -351,13 +360,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -369,22 +377,12 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -397,30 +395,39 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent" xfId="7"/>
-    <cellStyle name="Accent 1" xfId="8"/>
-    <cellStyle name="Accent 2" xfId="9"/>
-    <cellStyle name="Accent 3" xfId="10"/>
+    <cellStyle name="Accent" xfId="7" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Bad" xfId="4" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Error" xfId="11"/>
-    <cellStyle name="Footnote" xfId="12"/>
+    <cellStyle name="Error" xfId="11" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Footnote" xfId="12" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Good" xfId="3" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading" xfId="13"/>
+    <cellStyle name="Heading" xfId="13" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="14"/>
+    <cellStyle name="Hyperlink" xfId="14" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="Neutral" xfId="5" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
     <cellStyle name="Note" xfId="6" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Result" xfId="15"/>
-    <cellStyle name="Status" xfId="16"/>
-    <cellStyle name="Text" xfId="17"/>
-    <cellStyle name="Warning" xfId="18"/>
+    <cellStyle name="Result" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Status" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Text" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Warning" xfId="18" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1374,9 +1381,6 @@
       <a:noFill/>
     </a:ln>
   </c:spPr>
-  <c:externalData r:id="rId1">
-    <c:autoUpdate val="0"/>
-  </c:externalData>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -2487,7 +2491,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="__Anonymous_Sheet_DB__2" displayName="__Anonymous_Sheet_DB__2" ref="A55:F104" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="__Anonymous_Sheet_DB__2" displayName="__Anonymous_Sheet_DB__2" ref="A55:F104" headerRowCount="0" totalsRowShown="0">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A55:F104">
     <sortCondition descending="1" ref="C55:C104"/>
     <sortCondition ref="D55:D104"/>
@@ -2495,12 +2499,12 @@
     <sortCondition ref="F55:F104"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" name="Column1"/>
-    <tableColumn id="2" name="Column2"/>
-    <tableColumn id="3" name="Column3"/>
-    <tableColumn id="4" name="Column4"/>
-    <tableColumn id="5" name="Column5"/>
-    <tableColumn id="6" name="Column6"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Column1"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Column2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Column3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Column4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Column5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Column6"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2802,14 +2806,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="47.90625" customWidth="1"/>
     <col min="2" max="2" width="26.90625" customWidth="1"/>
@@ -2821,19 +2825,18 @@
     <col min="8" max="1024" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2841,10 +2844,9 @@
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
@@ -2853,10 +2855,9 @@
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
@@ -2865,10 +2866,9 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
@@ -2877,9 +2877,8 @@
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2887,513 +2886,502 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="1">
         <v>2.3949604363636301E-2</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="1">
         <v>1.48283452899435E-3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="1">
         <v>3.8507590537377803E-2</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="1">
         <v>0.12270512060605999</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="1">
         <v>8.9407800000000006E-3</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="1">
         <v>2.5970769747749901E-4</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="1">
         <v>1.6115449031209102E-2</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="1">
         <v>5.75609999999998E-2</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="1">
         <v>2.3812965557038001E-2</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="1">
         <v>1.4836486476383999E-3</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="1">
         <v>3.85181599721275E-2</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="1">
         <v>0.123502328247383</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="1">
         <v>6.3762860000000005E-2</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="1">
         <v>4.27122067809E-3</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="1">
         <v>6.5354576565761602E-2</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="1">
         <v>8.2598500000000005E-2</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="1">
         <v>80.469200000000001</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="1">
         <v>8980.0956060606004</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="1">
         <v>94.763366371507701</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="1">
         <v>202.665757575757</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="1">
         <v>15.14</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="1">
         <v>697.736666666666</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="1">
         <v>26.4147055002827</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="1">
         <v>95</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="1">
         <v>79.991660760785194</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="1">
         <v>9566.7582021397593</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="1">
         <v>97.8098062677754</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="1">
         <v>220.28880823226501</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="1">
         <v>79.998214731609707</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="1">
         <v>9573.8164552234102</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="1">
         <v>97.845881135709504</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="1">
         <v>217.995826942798</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="6"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
     </row>
-    <row r="22" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A23" s="7" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="1">
         <v>386.59456838787798</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="1">
         <v>191770.099111107</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="1">
         <v>437.91563012880403</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="1">
         <v>966.03819903030296</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="1">
         <v>110.855203</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="1">
         <v>48685.189330184803</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="1">
         <v>220.64720557982301</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="1">
         <v>716.54949166666597</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
     </row>
-    <row r="25" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25" s="1">
         <v>403.94761746750999</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="1">
         <v>195017.56534438199</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="1">
         <v>441.60793170456299</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="1">
         <v>874.89906095330502</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="8">
+      <c r="B26" s="1">
         <v>373.90905681218698</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="1">
         <v>278117.79546889599</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="1">
         <v>527.36874714842202</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="1">
         <v>919.91948383770398</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="6"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="10" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30" s="1">
         <v>226.35572338909</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="1">
         <v>92646.829952419605</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="1">
         <v>304.37941775425497</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="1">
         <v>1108.31918545454</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="8">
+      <c r="B31" s="1">
         <v>63.2718992</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="1">
         <v>24772.652843663</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="1">
         <v>157.39330622254201</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="1">
         <v>637.04259999999999</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A32" s="7" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="8">
+      <c r="B32" s="1">
         <v>222.58944202306799</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="1">
         <v>93370.046948479605</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="1">
         <v>305.56512717991802</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="1">
         <v>1098.42484687859</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="7" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B33" s="8">
+      <c r="B33" s="1">
         <v>181.21656479334101</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="1">
         <v>145360.767006318</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="1">
         <v>381.26207129259302</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="1">
         <v>1103.01473485819</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="C41" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3410,12 +3398,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A79" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.1796875" customWidth="1"/>
     <col min="2" max="2" width="29.6328125" customWidth="1"/>
@@ -3430,415 +3418,409 @@
     <col min="12" max="1024" width="10.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-    </row>
-    <row r="2" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G2" s="4" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G4" s="7" t="s">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="1">
         <v>2.3949604363636301E-2</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="1">
         <v>1.48283452899435E-3</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="1">
         <v>3.8507590537377803E-2</v>
       </c>
-      <c r="K4" s="8">
+      <c r="K4" s="1">
         <v>0.12270512060605999</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G5" s="7" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="1">
         <v>8.9407800000000006E-3</v>
       </c>
-      <c r="I5" s="8">
+      <c r="I5" s="1">
         <v>2.5970769747749901E-4</v>
       </c>
-      <c r="J5" s="8">
+      <c r="J5" s="1">
         <v>1.6115449031209102E-2</v>
       </c>
-      <c r="K5" s="8">
+      <c r="K5" s="1">
         <v>5.75609999999998E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G6" s="7" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="1">
         <v>2.3812965557038001E-2</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="1">
         <v>1.4836486476383999E-3</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="1">
         <v>3.85181599721275E-2</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="1">
         <v>0.123502328247383</v>
       </c>
     </row>
-    <row r="7" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G7" s="7" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="1">
         <v>6.3762860000000005E-2</v>
       </c>
-      <c r="I7" s="8">
+      <c r="I7" s="1">
         <v>4.27122067809E-3</v>
       </c>
-      <c r="J7" s="8">
+      <c r="J7" s="1">
         <v>6.5354576565761602E-2</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="1">
         <v>8.2598500000000005E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G9" s="4" t="s">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G8" s="6"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="H9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="6" t="s">
+      <c r="I9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G10" s="2"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G11" s="7" t="s">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G11" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="1">
         <v>80.469200000000001</v>
       </c>
-      <c r="I11" s="8">
+      <c r="I11" s="1">
         <v>8980.0956060606004</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="1">
         <v>94.763366371507701</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="1">
         <v>202.665757575757</v>
       </c>
     </row>
-    <row r="12" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G12" s="7" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="1">
         <v>15.14</v>
       </c>
-      <c r="I12" s="8">
+      <c r="I12" s="1">
         <v>697.736666666666</v>
       </c>
-      <c r="J12" s="8">
+      <c r="J12" s="1">
         <v>26.4147055002827</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G13" s="7" t="s">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="1">
         <v>79.991660760785194</v>
       </c>
-      <c r="I13" s="8">
+      <c r="I13" s="1">
         <v>9566.7582021397593</v>
       </c>
-      <c r="J13" s="8">
+      <c r="J13" s="1">
         <v>97.8098062677754</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="1">
         <v>220.28880823226501</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G14" s="7" t="s">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="1">
         <v>79.998214731609707</v>
       </c>
-      <c r="I14" s="8">
+      <c r="I14" s="1">
         <v>9573.8164552234102</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="1">
         <v>97.845881135709504</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="1">
         <v>217.995826942798</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-    </row>
-    <row r="16" spans="2:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G16" s="4" t="s">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G15" s="6"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="6" t="s">
+      <c r="H16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="J16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G17" s="2"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G18" s="7" t="s">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="1">
         <v>386.59456838787798</v>
       </c>
-      <c r="I18" s="8">
+      <c r="I18" s="1">
         <v>191770.099111107</v>
       </c>
-      <c r="J18" s="8">
+      <c r="J18" s="1">
         <v>437.91563012880403</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="1">
         <v>966.03819903030296</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G19" s="7" t="s">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="1">
         <v>110.855203</v>
       </c>
-      <c r="I19" s="8">
+      <c r="I19" s="1">
         <v>48685.189330184803</v>
       </c>
-      <c r="J19" s="8">
+      <c r="J19" s="1">
         <v>220.64720557982301</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="1">
         <v>716.54949166666597</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G20" s="7" t="s">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="1">
         <v>403.94761746750999</v>
       </c>
-      <c r="I20" s="8">
+      <c r="I20" s="1">
         <v>195017.56534438199</v>
       </c>
-      <c r="J20" s="8">
+      <c r="J20" s="1">
         <v>441.60793170456299</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="1">
         <v>874.89906095330502</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G21" s="7" t="s">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="1">
         <v>373.90905681218698</v>
       </c>
-      <c r="I21" s="8">
+      <c r="I21" s="1">
         <v>278117.79546889599</v>
       </c>
-      <c r="J21" s="8">
+      <c r="J21" s="1">
         <v>527.36874714842202</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="1">
         <v>919.91948383770398</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="8"/>
-      <c r="K22" s="8"/>
-    </row>
-    <row r="23" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G23" s="4" t="s">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G22" s="6"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="6" t="s">
+      <c r="I23" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J23" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-    </row>
-    <row r="25" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G25" s="7" t="s">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G24" s="6"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G25" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="1">
         <v>226.35572338909</v>
       </c>
-      <c r="I25" s="8">
+      <c r="I25" s="1">
         <v>92646.829952419605</v>
       </c>
-      <c r="J25" s="8">
+      <c r="J25" s="1">
         <v>304.37941775425497</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="1">
         <v>1108.31918545454</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G26" s="7" t="s">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G26" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="1">
         <v>63.2718992</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="1">
         <v>24772.652843663</v>
       </c>
-      <c r="J26" s="8">
+      <c r="J26" s="1">
         <v>157.39330622254201</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="1">
         <v>637.04259999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G27" s="7" t="s">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G27" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="1">
         <v>222.58944202306799</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="1">
         <v>93370.046948479605</v>
       </c>
-      <c r="J27" s="8">
+      <c r="J27" s="1">
         <v>305.56512717991802</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="1">
         <v>1098.42484687859</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="G28" s="7" t="s">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="G28" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="1">
         <v>181.21656479334101</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="1">
         <v>145360.767006318</v>
       </c>
-      <c r="J28" s="8">
+      <c r="J28" s="1">
         <v>381.26207129259302</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="1">
         <v>1103.01473485819</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
@@ -3852,11 +3834,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMI53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:Q53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3878,4401 +3860,2390 @@
     <col min="16" max="1023" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="N1" s="17" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="N1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
-      <c r="AL1" s="12"/>
-      <c r="AM1" s="12"/>
-      <c r="AN1" s="12"/>
-      <c r="AO1" s="12"/>
-      <c r="AP1" s="12"/>
-      <c r="AQ1" s="12"/>
-      <c r="AR1" s="12"/>
-      <c r="AS1" s="12"/>
-      <c r="AT1" s="12"/>
-      <c r="AU1" s="12"/>
-      <c r="AV1" s="12"/>
-      <c r="AW1" s="12"/>
-      <c r="AX1" s="12"/>
-      <c r="AY1" s="12"/>
-      <c r="AZ1" s="12"/>
-      <c r="BA1" s="12"/>
-      <c r="BB1" s="12"/>
-      <c r="BC1" s="12"/>
-      <c r="BD1" s="12"/>
-      <c r="BE1" s="12"/>
-      <c r="BF1" s="12"/>
-      <c r="BG1" s="12"/>
-      <c r="BH1" s="12"/>
-      <c r="BI1" s="12"/>
-      <c r="BJ1" s="12"/>
-      <c r="BK1" s="12"/>
-      <c r="BL1" s="12"/>
-      <c r="BM1" s="12"/>
-      <c r="BN1" s="12"/>
-      <c r="BO1" s="12"/>
-      <c r="BP1" s="12"/>
-      <c r="BQ1" s="12"/>
-      <c r="BR1" s="12"/>
-      <c r="BS1" s="12"/>
-      <c r="BT1" s="12"/>
-      <c r="BU1" s="12"/>
-      <c r="BV1" s="12"/>
-      <c r="BW1" s="12"/>
-      <c r="BX1" s="12"/>
-      <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
-      <c r="CA1" s="12"/>
-      <c r="CB1" s="12"/>
-      <c r="CC1" s="12"/>
-      <c r="CD1" s="12"/>
-      <c r="CE1" s="12"/>
-      <c r="CF1" s="12"/>
-      <c r="CG1" s="12"/>
-      <c r="CH1" s="12"/>
-      <c r="CI1" s="12"/>
-      <c r="CJ1" s="12"/>
-      <c r="CK1" s="12"/>
-      <c r="CL1" s="12"/>
-      <c r="CM1" s="12"/>
-      <c r="CN1" s="12"/>
-      <c r="CO1" s="12"/>
-      <c r="CP1" s="12"/>
-      <c r="CQ1" s="12"/>
-      <c r="CR1" s="12"/>
-      <c r="CS1" s="12"/>
-      <c r="CT1" s="12"/>
-      <c r="CU1" s="12"/>
-      <c r="CV1" s="12"/>
-      <c r="CW1" s="12"/>
-      <c r="CX1" s="12"/>
-      <c r="CY1" s="12"/>
-      <c r="CZ1" s="12"/>
-      <c r="DA1" s="12"/>
-      <c r="DB1" s="12"/>
-      <c r="DC1" s="12"/>
-      <c r="DD1" s="12"/>
-      <c r="DE1" s="12"/>
-      <c r="DF1" s="12"/>
-      <c r="DG1" s="12"/>
-      <c r="DH1" s="12"/>
-      <c r="DI1" s="12"/>
-      <c r="DJ1" s="12"/>
-      <c r="DK1" s="12"/>
-      <c r="DL1" s="12"/>
-      <c r="DM1" s="12"/>
-      <c r="DN1" s="12"/>
-      <c r="DO1" s="12"/>
-      <c r="DP1" s="12"/>
-      <c r="DQ1" s="12"/>
-      <c r="DR1" s="12"/>
-      <c r="DS1" s="12"/>
-      <c r="DT1" s="12"/>
-      <c r="DU1" s="12"/>
-      <c r="DV1" s="12"/>
-      <c r="DW1" s="12"/>
-      <c r="DX1" s="12"/>
-      <c r="DY1" s="12"/>
-      <c r="DZ1" s="12"/>
-      <c r="EA1" s="12"/>
-      <c r="EB1" s="12"/>
-      <c r="EC1" s="12"/>
-      <c r="ED1" s="12"/>
-      <c r="EE1" s="12"/>
-      <c r="EF1" s="12"/>
-      <c r="EG1" s="12"/>
-      <c r="EH1" s="12"/>
-      <c r="EI1" s="12"/>
-      <c r="EJ1" s="12"/>
-      <c r="EK1" s="12"/>
-      <c r="EL1" s="12"/>
-      <c r="EM1" s="12"/>
-      <c r="EN1" s="12"/>
-      <c r="EO1" s="12"/>
-      <c r="EP1" s="12"/>
-      <c r="EQ1" s="12"/>
-      <c r="ER1" s="12"/>
-      <c r="ES1" s="12"/>
-      <c r="ET1" s="12"/>
-      <c r="EU1" s="12"/>
-      <c r="EV1" s="12"/>
-      <c r="EW1" s="12"/>
-      <c r="EX1" s="12"/>
-      <c r="EY1" s="12"/>
-      <c r="EZ1" s="12"/>
-      <c r="FA1" s="12"/>
-      <c r="FB1" s="12"/>
-      <c r="FC1" s="12"/>
-      <c r="FD1" s="12"/>
-      <c r="FE1" s="12"/>
-      <c r="FF1" s="12"/>
-      <c r="FG1" s="12"/>
-      <c r="FH1" s="12"/>
-      <c r="FI1" s="12"/>
-      <c r="FJ1" s="12"/>
-      <c r="FK1" s="12"/>
-      <c r="FL1" s="12"/>
-      <c r="FM1" s="12"/>
-      <c r="FN1" s="12"/>
-      <c r="FO1" s="12"/>
-      <c r="FP1" s="12"/>
-      <c r="FQ1" s="12"/>
-      <c r="FR1" s="12"/>
-      <c r="FS1" s="12"/>
-      <c r="FT1" s="12"/>
-      <c r="FU1" s="12"/>
-      <c r="FV1" s="12"/>
-      <c r="FW1" s="12"/>
-      <c r="FX1" s="12"/>
-      <c r="FY1" s="12"/>
-      <c r="FZ1" s="12"/>
-      <c r="GA1" s="12"/>
-      <c r="GB1" s="12"/>
-      <c r="GC1" s="12"/>
-      <c r="GD1" s="12"/>
-      <c r="GE1" s="12"/>
-      <c r="GF1" s="12"/>
-      <c r="GG1" s="12"/>
-      <c r="GH1" s="12"/>
-      <c r="GI1" s="12"/>
-      <c r="GJ1" s="12"/>
-      <c r="GK1" s="12"/>
-      <c r="GL1" s="12"/>
-      <c r="GM1" s="12"/>
-      <c r="GN1" s="12"/>
-      <c r="GO1" s="12"/>
-      <c r="GP1" s="12"/>
-      <c r="GQ1" s="12"/>
-      <c r="GR1" s="12"/>
-      <c r="GS1" s="12"/>
-      <c r="GT1" s="12"/>
-      <c r="GU1" s="12"/>
-      <c r="GV1" s="12"/>
-      <c r="GW1" s="12"/>
-      <c r="GX1" s="12"/>
-      <c r="GY1" s="12"/>
-      <c r="GZ1" s="12"/>
-      <c r="HA1" s="12"/>
-      <c r="HB1" s="12"/>
-      <c r="HC1" s="12"/>
-      <c r="HD1" s="12"/>
-      <c r="HE1" s="12"/>
-      <c r="HF1" s="12"/>
-      <c r="HG1" s="12"/>
-      <c r="HH1" s="12"/>
-      <c r="HI1" s="12"/>
-      <c r="HJ1" s="12"/>
-      <c r="HK1" s="12"/>
-      <c r="HL1" s="12"/>
-      <c r="HM1" s="12"/>
-      <c r="HN1" s="12"/>
-      <c r="HO1" s="12"/>
-      <c r="HP1" s="12"/>
-      <c r="HQ1" s="12"/>
-      <c r="HR1" s="12"/>
-      <c r="HS1" s="12"/>
-      <c r="HT1" s="12"/>
-      <c r="HU1" s="12"/>
-      <c r="HV1" s="12"/>
-      <c r="HW1" s="12"/>
-      <c r="HX1" s="12"/>
-      <c r="HY1" s="12"/>
-      <c r="HZ1" s="12"/>
-      <c r="IA1" s="12"/>
-      <c r="IB1" s="12"/>
-      <c r="IC1" s="12"/>
-      <c r="ID1" s="12"/>
-      <c r="IE1" s="12"/>
-      <c r="IF1" s="12"/>
-      <c r="IG1" s="12"/>
-      <c r="IH1" s="12"/>
-      <c r="II1" s="12"/>
-      <c r="IJ1" s="12"/>
-      <c r="IK1" s="12"/>
-      <c r="IL1" s="12"/>
-      <c r="IM1" s="12"/>
-      <c r="IN1" s="12"/>
-      <c r="IO1" s="12"/>
-      <c r="IP1" s="12"/>
-      <c r="IQ1" s="12"/>
-      <c r="IR1" s="12"/>
-      <c r="IS1" s="12"/>
-      <c r="IT1" s="12"/>
-      <c r="IU1" s="12"/>
-      <c r="IV1" s="12"/>
-      <c r="IW1" s="12"/>
-      <c r="IX1" s="12"/>
-      <c r="IY1" s="12"/>
-      <c r="IZ1" s="12"/>
-      <c r="JA1" s="12"/>
-      <c r="JB1" s="12"/>
-      <c r="JC1" s="12"/>
-      <c r="JD1" s="12"/>
-      <c r="JE1" s="12"/>
-      <c r="JF1" s="12"/>
-      <c r="JG1" s="12"/>
-      <c r="JH1" s="12"/>
-      <c r="JI1" s="12"/>
-      <c r="JJ1" s="12"/>
-      <c r="JK1" s="12"/>
-      <c r="JL1" s="12"/>
-      <c r="JM1" s="12"/>
-      <c r="JN1" s="12"/>
-      <c r="JO1" s="12"/>
-      <c r="JP1" s="12"/>
-      <c r="JQ1" s="12"/>
-      <c r="JR1" s="12"/>
-      <c r="JS1" s="12"/>
-      <c r="JT1" s="12"/>
-      <c r="JU1" s="12"/>
-      <c r="JV1" s="12"/>
-      <c r="JW1" s="12"/>
-      <c r="JX1" s="12"/>
-      <c r="JY1" s="12"/>
-      <c r="JZ1" s="12"/>
-      <c r="KA1" s="12"/>
-      <c r="KB1" s="12"/>
-      <c r="KC1" s="12"/>
-      <c r="KD1" s="12"/>
-      <c r="KE1" s="12"/>
-      <c r="KF1" s="12"/>
-      <c r="KG1" s="12"/>
-      <c r="KH1" s="12"/>
-      <c r="KI1" s="12"/>
-      <c r="KJ1" s="12"/>
-      <c r="KK1" s="12"/>
-      <c r="KL1" s="12"/>
-      <c r="KM1" s="12"/>
-      <c r="KN1" s="12"/>
-      <c r="KO1" s="12"/>
-      <c r="KP1" s="12"/>
-      <c r="KQ1" s="12"/>
-      <c r="KR1" s="12"/>
-      <c r="KS1" s="12"/>
-      <c r="KT1" s="12"/>
-      <c r="KU1" s="12"/>
-      <c r="KV1" s="12"/>
-      <c r="KW1" s="12"/>
-      <c r="KX1" s="12"/>
-      <c r="KY1" s="12"/>
-      <c r="KZ1" s="12"/>
-      <c r="LA1" s="12"/>
-      <c r="LB1" s="12"/>
-      <c r="LC1" s="12"/>
-      <c r="LD1" s="12"/>
-      <c r="LE1" s="12"/>
-      <c r="LF1" s="12"/>
-      <c r="LG1" s="12"/>
-      <c r="LH1" s="12"/>
-      <c r="LI1" s="12"/>
-      <c r="LJ1" s="12"/>
-      <c r="LK1" s="12"/>
-      <c r="LL1" s="12"/>
-      <c r="LM1" s="12"/>
-      <c r="LN1" s="12"/>
-      <c r="LO1" s="12"/>
-      <c r="LP1" s="12"/>
-      <c r="LQ1" s="12"/>
-      <c r="LR1" s="12"/>
-      <c r="LS1" s="12"/>
-      <c r="LT1" s="12"/>
-      <c r="LU1" s="12"/>
-      <c r="LV1" s="12"/>
-      <c r="LW1" s="12"/>
-      <c r="LX1" s="12"/>
-      <c r="LY1" s="12"/>
-      <c r="LZ1" s="12"/>
-      <c r="MA1" s="12"/>
-      <c r="MB1" s="12"/>
-      <c r="MC1" s="12"/>
-      <c r="MD1" s="12"/>
-      <c r="ME1" s="12"/>
-      <c r="MF1" s="12"/>
-      <c r="MG1" s="12"/>
-      <c r="MH1" s="12"/>
-      <c r="MI1" s="12"/>
-      <c r="MJ1" s="12"/>
-      <c r="MK1" s="12"/>
-      <c r="ML1" s="12"/>
-      <c r="MM1" s="12"/>
-      <c r="MN1" s="12"/>
-      <c r="MO1" s="12"/>
-      <c r="MP1" s="12"/>
-      <c r="MQ1" s="12"/>
-      <c r="MR1" s="12"/>
-      <c r="MS1" s="12"/>
-      <c r="MT1" s="12"/>
-      <c r="MU1" s="12"/>
-      <c r="MV1" s="12"/>
-      <c r="MW1" s="12"/>
-      <c r="MX1" s="12"/>
-      <c r="MY1" s="12"/>
-      <c r="MZ1" s="12"/>
-      <c r="NA1" s="12"/>
-      <c r="NB1" s="12"/>
-      <c r="NC1" s="12"/>
-      <c r="ND1" s="12"/>
-      <c r="NE1" s="12"/>
-      <c r="NF1" s="12"/>
-      <c r="NG1" s="12"/>
-      <c r="NH1" s="12"/>
-      <c r="NI1" s="12"/>
-      <c r="NJ1" s="12"/>
-      <c r="NK1" s="12"/>
-      <c r="NL1" s="12"/>
-      <c r="NM1" s="12"/>
-      <c r="NN1" s="12"/>
-      <c r="NO1" s="12"/>
-      <c r="NP1" s="12"/>
-      <c r="NQ1" s="12"/>
-      <c r="NR1" s="12"/>
-      <c r="NS1" s="12"/>
-      <c r="NT1" s="12"/>
-      <c r="NU1" s="12"/>
-      <c r="NV1" s="12"/>
-      <c r="NW1" s="12"/>
-      <c r="NX1" s="12"/>
-      <c r="NY1" s="12"/>
-      <c r="NZ1" s="12"/>
-      <c r="OA1" s="12"/>
-      <c r="OB1" s="12"/>
-      <c r="OC1" s="12"/>
-      <c r="OD1" s="12"/>
-      <c r="OE1" s="12"/>
-      <c r="OF1" s="12"/>
-      <c r="OG1" s="12"/>
-      <c r="OH1" s="12"/>
-      <c r="OI1" s="12"/>
-      <c r="OJ1" s="12"/>
-      <c r="OK1" s="12"/>
-      <c r="OL1" s="12"/>
-      <c r="OM1" s="12"/>
-      <c r="ON1" s="12"/>
-      <c r="OO1" s="12"/>
-      <c r="OP1" s="12"/>
-      <c r="OQ1" s="12"/>
-      <c r="OR1" s="12"/>
-      <c r="OS1" s="12"/>
-      <c r="OT1" s="12"/>
-      <c r="OU1" s="12"/>
-      <c r="OV1" s="12"/>
-      <c r="OW1" s="12"/>
-      <c r="OX1" s="12"/>
-      <c r="OY1" s="12"/>
-      <c r="OZ1" s="12"/>
-      <c r="PA1" s="12"/>
-      <c r="PB1" s="12"/>
-      <c r="PC1" s="12"/>
-      <c r="PD1" s="12"/>
-      <c r="PE1" s="12"/>
-      <c r="PF1" s="12"/>
-      <c r="PG1" s="12"/>
-      <c r="PH1" s="12"/>
-      <c r="PI1" s="12"/>
-      <c r="PJ1" s="12"/>
-      <c r="PK1" s="12"/>
-      <c r="PL1" s="12"/>
-      <c r="PM1" s="12"/>
-      <c r="PN1" s="12"/>
-      <c r="PO1" s="12"/>
-      <c r="PP1" s="12"/>
-      <c r="PQ1" s="12"/>
-      <c r="PR1" s="12"/>
-      <c r="PS1" s="12"/>
-      <c r="PT1" s="12"/>
-      <c r="PU1" s="12"/>
-      <c r="PV1" s="12"/>
-      <c r="PW1" s="12"/>
-      <c r="PX1" s="12"/>
-      <c r="PY1" s="12"/>
-      <c r="PZ1" s="12"/>
-      <c r="QA1" s="12"/>
-      <c r="QB1" s="12"/>
-      <c r="QC1" s="12"/>
-      <c r="QD1" s="12"/>
-      <c r="QE1" s="12"/>
-      <c r="QF1" s="12"/>
-      <c r="QG1" s="12"/>
-      <c r="QH1" s="12"/>
-      <c r="QI1" s="12"/>
-      <c r="QJ1" s="12"/>
-      <c r="QK1" s="12"/>
-      <c r="QL1" s="12"/>
-      <c r="QM1" s="12"/>
-      <c r="QN1" s="12"/>
-      <c r="QO1" s="12"/>
-      <c r="QP1" s="12"/>
-      <c r="QQ1" s="12"/>
-      <c r="QR1" s="12"/>
-      <c r="QS1" s="12"/>
-      <c r="QT1" s="12"/>
-      <c r="QU1" s="12"/>
-      <c r="QV1" s="12"/>
-      <c r="QW1" s="12"/>
-      <c r="QX1" s="12"/>
-      <c r="QY1" s="12"/>
-      <c r="QZ1" s="12"/>
-      <c r="RA1" s="12"/>
-      <c r="RB1" s="12"/>
-      <c r="RC1" s="12"/>
-      <c r="RD1" s="12"/>
-      <c r="RE1" s="12"/>
-      <c r="RF1" s="12"/>
-      <c r="RG1" s="12"/>
-      <c r="RH1" s="12"/>
-      <c r="RI1" s="12"/>
-      <c r="RJ1" s="12"/>
-      <c r="RK1" s="12"/>
-      <c r="RL1" s="12"/>
-      <c r="RM1" s="12"/>
-      <c r="RN1" s="12"/>
-      <c r="RO1" s="12"/>
-      <c r="RP1" s="12"/>
-      <c r="RQ1" s="12"/>
-      <c r="RR1" s="12"/>
-      <c r="RS1" s="12"/>
-      <c r="RT1" s="12"/>
-      <c r="RU1" s="12"/>
-      <c r="RV1" s="12"/>
-      <c r="RW1" s="12"/>
-      <c r="RX1" s="12"/>
-      <c r="RY1" s="12"/>
-      <c r="RZ1" s="12"/>
-      <c r="SA1" s="12"/>
-      <c r="SB1" s="12"/>
-      <c r="SC1" s="12"/>
-      <c r="SD1" s="12"/>
-      <c r="SE1" s="12"/>
-      <c r="SF1" s="12"/>
-      <c r="SG1" s="12"/>
-      <c r="SH1" s="12"/>
-      <c r="SI1" s="12"/>
-      <c r="SJ1" s="12"/>
-      <c r="SK1" s="12"/>
-      <c r="SL1" s="12"/>
-      <c r="SM1" s="12"/>
-      <c r="SN1" s="12"/>
-      <c r="SO1" s="12"/>
-      <c r="SP1" s="12"/>
-      <c r="SQ1" s="12"/>
-      <c r="SR1" s="12"/>
-      <c r="SS1" s="12"/>
-      <c r="ST1" s="12"/>
-      <c r="SU1" s="12"/>
-      <c r="SV1" s="12"/>
-      <c r="SW1" s="12"/>
-      <c r="SX1" s="12"/>
-      <c r="SY1" s="12"/>
-      <c r="SZ1" s="12"/>
-      <c r="TA1" s="12"/>
-      <c r="TB1" s="12"/>
-      <c r="TC1" s="12"/>
-      <c r="TD1" s="12"/>
-      <c r="TE1" s="12"/>
-      <c r="TF1" s="12"/>
-      <c r="TG1" s="12"/>
-      <c r="TH1" s="12"/>
-      <c r="TI1" s="12"/>
-      <c r="TJ1" s="12"/>
-      <c r="TK1" s="12"/>
-      <c r="TL1" s="12"/>
-      <c r="TM1" s="12"/>
-      <c r="TN1" s="12"/>
-      <c r="TO1" s="12"/>
-      <c r="TP1" s="12"/>
-      <c r="TQ1" s="12"/>
-      <c r="TR1" s="12"/>
-      <c r="TS1" s="12"/>
-      <c r="TT1" s="12"/>
-      <c r="TU1" s="12"/>
-      <c r="TV1" s="12"/>
-      <c r="TW1" s="12"/>
-      <c r="TX1" s="12"/>
-      <c r="TY1" s="12"/>
-      <c r="TZ1" s="12"/>
-      <c r="UA1" s="12"/>
-      <c r="UB1" s="12"/>
-      <c r="UC1" s="12"/>
-      <c r="UD1" s="12"/>
-      <c r="UE1" s="12"/>
-      <c r="UF1" s="12"/>
-      <c r="UG1" s="12"/>
-      <c r="UH1" s="12"/>
-      <c r="UI1" s="12"/>
-      <c r="UJ1" s="12"/>
-      <c r="UK1" s="12"/>
-      <c r="UL1" s="12"/>
-      <c r="UM1" s="12"/>
-      <c r="UN1" s="12"/>
-      <c r="UO1" s="12"/>
-      <c r="UP1" s="12"/>
-      <c r="UQ1" s="12"/>
-      <c r="UR1" s="12"/>
-      <c r="US1" s="12"/>
-      <c r="UT1" s="12"/>
-      <c r="UU1" s="12"/>
-      <c r="UV1" s="12"/>
-      <c r="UW1" s="12"/>
-      <c r="UX1" s="12"/>
-      <c r="UY1" s="12"/>
-      <c r="UZ1" s="12"/>
-      <c r="VA1" s="12"/>
-      <c r="VB1" s="12"/>
-      <c r="VC1" s="12"/>
-      <c r="VD1" s="12"/>
-      <c r="VE1" s="12"/>
-      <c r="VF1" s="12"/>
-      <c r="VG1" s="12"/>
-      <c r="VH1" s="12"/>
-      <c r="VI1" s="12"/>
-      <c r="VJ1" s="12"/>
-      <c r="VK1" s="12"/>
-      <c r="VL1" s="12"/>
-      <c r="VM1" s="12"/>
-      <c r="VN1" s="12"/>
-      <c r="VO1" s="12"/>
-      <c r="VP1" s="12"/>
-      <c r="VQ1" s="12"/>
-      <c r="VR1" s="12"/>
-      <c r="VS1" s="12"/>
-      <c r="VT1" s="12"/>
-      <c r="VU1" s="12"/>
-      <c r="VV1" s="12"/>
-      <c r="VW1" s="12"/>
-      <c r="VX1" s="12"/>
-      <c r="VY1" s="12"/>
-      <c r="VZ1" s="12"/>
-      <c r="WA1" s="12"/>
-      <c r="WB1" s="12"/>
-      <c r="WC1" s="12"/>
-      <c r="WD1" s="12"/>
-      <c r="WE1" s="12"/>
-      <c r="WF1" s="12"/>
-      <c r="WG1" s="12"/>
-      <c r="WH1" s="12"/>
-      <c r="WI1" s="12"/>
-      <c r="WJ1" s="12"/>
-      <c r="WK1" s="12"/>
-      <c r="WL1" s="12"/>
-      <c r="WM1" s="12"/>
-      <c r="WN1" s="12"/>
-      <c r="WO1" s="12"/>
-      <c r="WP1" s="12"/>
-      <c r="WQ1" s="12"/>
-      <c r="WR1" s="12"/>
-      <c r="WS1" s="12"/>
-      <c r="WT1" s="12"/>
-      <c r="WU1" s="12"/>
-      <c r="WV1" s="12"/>
-      <c r="WW1" s="12"/>
-      <c r="WX1" s="12"/>
-      <c r="WY1" s="12"/>
-      <c r="WZ1" s="12"/>
-      <c r="XA1" s="12"/>
-      <c r="XB1" s="12"/>
-      <c r="XC1" s="12"/>
-      <c r="XD1" s="12"/>
-      <c r="XE1" s="12"/>
-      <c r="XF1" s="12"/>
-      <c r="XG1" s="12"/>
-      <c r="XH1" s="12"/>
-      <c r="XI1" s="12"/>
-      <c r="XJ1" s="12"/>
-      <c r="XK1" s="12"/>
-      <c r="XL1" s="12"/>
-      <c r="XM1" s="12"/>
-      <c r="XN1" s="12"/>
-      <c r="XO1" s="12"/>
-      <c r="XP1" s="12"/>
-      <c r="XQ1" s="12"/>
-      <c r="XR1" s="12"/>
-      <c r="XS1" s="12"/>
-      <c r="XT1" s="12"/>
-      <c r="XU1" s="12"/>
-      <c r="XV1" s="12"/>
-      <c r="XW1" s="12"/>
-      <c r="XX1" s="12"/>
-      <c r="XY1" s="12"/>
-      <c r="XZ1" s="12"/>
-      <c r="YA1" s="12"/>
-      <c r="YB1" s="12"/>
-      <c r="YC1" s="12"/>
-      <c r="YD1" s="12"/>
-      <c r="YE1" s="12"/>
-      <c r="YF1" s="12"/>
-      <c r="YG1" s="12"/>
-      <c r="YH1" s="12"/>
-      <c r="YI1" s="12"/>
-      <c r="YJ1" s="12"/>
-      <c r="YK1" s="12"/>
-      <c r="YL1" s="12"/>
-      <c r="YM1" s="12"/>
-      <c r="YN1" s="12"/>
-      <c r="YO1" s="12"/>
-      <c r="YP1" s="12"/>
-      <c r="YQ1" s="12"/>
-      <c r="YR1" s="12"/>
-      <c r="YS1" s="12"/>
-      <c r="YT1" s="12"/>
-      <c r="YU1" s="12"/>
-      <c r="YV1" s="12"/>
-      <c r="YW1" s="12"/>
-      <c r="YX1" s="12"/>
-      <c r="YY1" s="12"/>
-      <c r="YZ1" s="12"/>
-      <c r="ZA1" s="12"/>
-      <c r="ZB1" s="12"/>
-      <c r="ZC1" s="12"/>
-      <c r="ZD1" s="12"/>
-      <c r="ZE1" s="12"/>
-      <c r="ZF1" s="12"/>
-      <c r="ZG1" s="12"/>
-      <c r="ZH1" s="12"/>
-      <c r="ZI1" s="12"/>
-      <c r="ZJ1" s="12"/>
-      <c r="ZK1" s="12"/>
-      <c r="ZL1" s="12"/>
-      <c r="ZM1" s="12"/>
-      <c r="ZN1" s="12"/>
-      <c r="ZO1" s="12"/>
-      <c r="ZP1" s="12"/>
-      <c r="ZQ1" s="12"/>
-      <c r="ZR1" s="12"/>
-      <c r="ZS1" s="12"/>
-      <c r="ZT1" s="12"/>
-      <c r="ZU1" s="12"/>
-      <c r="ZV1" s="12"/>
-      <c r="ZW1" s="12"/>
-      <c r="ZX1" s="12"/>
-      <c r="ZY1" s="12"/>
-      <c r="ZZ1" s="12"/>
-      <c r="AAA1" s="12"/>
-      <c r="AAB1" s="12"/>
-      <c r="AAC1" s="12"/>
-      <c r="AAD1" s="12"/>
-      <c r="AAE1" s="12"/>
-      <c r="AAF1" s="12"/>
-      <c r="AAG1" s="12"/>
-      <c r="AAH1" s="12"/>
-      <c r="AAI1" s="12"/>
-      <c r="AAJ1" s="12"/>
-      <c r="AAK1" s="12"/>
-      <c r="AAL1" s="12"/>
-      <c r="AAM1" s="12"/>
-      <c r="AAN1" s="12"/>
-      <c r="AAO1" s="12"/>
-      <c r="AAP1" s="12"/>
-      <c r="AAQ1" s="12"/>
-      <c r="AAR1" s="12"/>
-      <c r="AAS1" s="12"/>
-      <c r="AAT1" s="12"/>
-      <c r="AAU1" s="12"/>
-      <c r="AAV1" s="12"/>
-      <c r="AAW1" s="12"/>
-      <c r="AAX1" s="12"/>
-      <c r="AAY1" s="12"/>
-      <c r="AAZ1" s="12"/>
-      <c r="ABA1" s="12"/>
-      <c r="ABB1" s="12"/>
-      <c r="ABC1" s="12"/>
-      <c r="ABD1" s="12"/>
-      <c r="ABE1" s="12"/>
-      <c r="ABF1" s="12"/>
-      <c r="ABG1" s="12"/>
-      <c r="ABH1" s="12"/>
-      <c r="ABI1" s="12"/>
-      <c r="ABJ1" s="12"/>
-      <c r="ABK1" s="12"/>
-      <c r="ABL1" s="12"/>
-      <c r="ABM1" s="12"/>
-      <c r="ABN1" s="12"/>
-      <c r="ABO1" s="12"/>
-      <c r="ABP1" s="12"/>
-      <c r="ABQ1" s="12"/>
-      <c r="ABR1" s="12"/>
-      <c r="ABS1" s="12"/>
-      <c r="ABT1" s="12"/>
-      <c r="ABU1" s="12"/>
-      <c r="ABV1" s="12"/>
-      <c r="ABW1" s="12"/>
-      <c r="ABX1" s="12"/>
-      <c r="ABY1" s="12"/>
-      <c r="ABZ1" s="12"/>
-      <c r="ACA1" s="12"/>
-      <c r="ACB1" s="12"/>
-      <c r="ACC1" s="12"/>
-      <c r="ACD1" s="12"/>
-      <c r="ACE1" s="12"/>
-      <c r="ACF1" s="12"/>
-      <c r="ACG1" s="12"/>
-      <c r="ACH1" s="12"/>
-      <c r="ACI1" s="12"/>
-      <c r="ACJ1" s="12"/>
-      <c r="ACK1" s="12"/>
-      <c r="ACL1" s="12"/>
-      <c r="ACM1" s="12"/>
-      <c r="ACN1" s="12"/>
-      <c r="ACO1" s="12"/>
-      <c r="ACP1" s="12"/>
-      <c r="ACQ1" s="12"/>
-      <c r="ACR1" s="12"/>
-      <c r="ACS1" s="12"/>
-      <c r="ACT1" s="12"/>
-      <c r="ACU1" s="12"/>
-      <c r="ACV1" s="12"/>
-      <c r="ACW1" s="12"/>
-      <c r="ACX1" s="12"/>
-      <c r="ACY1" s="12"/>
-      <c r="ACZ1" s="12"/>
-      <c r="ADA1" s="12"/>
-      <c r="ADB1" s="12"/>
-      <c r="ADC1" s="12"/>
-      <c r="ADD1" s="12"/>
-      <c r="ADE1" s="12"/>
-      <c r="ADF1" s="12"/>
-      <c r="ADG1" s="12"/>
-      <c r="ADH1" s="12"/>
-      <c r="ADI1" s="12"/>
-      <c r="ADJ1" s="12"/>
-      <c r="ADK1" s="12"/>
-      <c r="ADL1" s="12"/>
-      <c r="ADM1" s="12"/>
-      <c r="ADN1" s="12"/>
-      <c r="ADO1" s="12"/>
-      <c r="ADP1" s="12"/>
-      <c r="ADQ1" s="12"/>
-      <c r="ADR1" s="12"/>
-      <c r="ADS1" s="12"/>
-      <c r="ADT1" s="12"/>
-      <c r="ADU1" s="12"/>
-      <c r="ADV1" s="12"/>
-      <c r="ADW1" s="12"/>
-      <c r="ADX1" s="12"/>
-      <c r="ADY1" s="12"/>
-      <c r="ADZ1" s="12"/>
-      <c r="AEA1" s="12"/>
-      <c r="AEB1" s="12"/>
-      <c r="AEC1" s="12"/>
-      <c r="AED1" s="12"/>
-      <c r="AEE1" s="12"/>
-      <c r="AEF1" s="12"/>
-      <c r="AEG1" s="12"/>
-      <c r="AEH1" s="12"/>
-      <c r="AEI1" s="12"/>
-      <c r="AEJ1" s="12"/>
-      <c r="AEK1" s="12"/>
-      <c r="AEL1" s="12"/>
-      <c r="AEM1" s="12"/>
-      <c r="AEN1" s="12"/>
-      <c r="AEO1" s="12"/>
-      <c r="AEP1" s="12"/>
-      <c r="AEQ1" s="12"/>
-      <c r="AER1" s="12"/>
-      <c r="AES1" s="12"/>
-      <c r="AET1" s="12"/>
-      <c r="AEU1" s="12"/>
-      <c r="AEV1" s="12"/>
-      <c r="AEW1" s="12"/>
-      <c r="AEX1" s="12"/>
-      <c r="AEY1" s="12"/>
-      <c r="AEZ1" s="12"/>
-      <c r="AFA1" s="12"/>
-      <c r="AFB1" s="12"/>
-      <c r="AFC1" s="12"/>
-      <c r="AFD1" s="12"/>
-      <c r="AFE1" s="12"/>
-      <c r="AFF1" s="12"/>
-      <c r="AFG1" s="12"/>
-      <c r="AFH1" s="12"/>
-      <c r="AFI1" s="12"/>
-      <c r="AFJ1" s="12"/>
-      <c r="AFK1" s="12"/>
-      <c r="AFL1" s="12"/>
-      <c r="AFM1" s="12"/>
-      <c r="AFN1" s="12"/>
-      <c r="AFO1" s="12"/>
-      <c r="AFP1" s="12"/>
-      <c r="AFQ1" s="12"/>
-      <c r="AFR1" s="12"/>
-      <c r="AFS1" s="12"/>
-      <c r="AFT1" s="12"/>
-      <c r="AFU1" s="12"/>
-      <c r="AFV1" s="12"/>
-      <c r="AFW1" s="12"/>
-      <c r="AFX1" s="12"/>
-      <c r="AFY1" s="12"/>
-      <c r="AFZ1" s="12"/>
-      <c r="AGA1" s="12"/>
-      <c r="AGB1" s="12"/>
-      <c r="AGC1" s="12"/>
-      <c r="AGD1" s="12"/>
-      <c r="AGE1" s="12"/>
-      <c r="AGF1" s="12"/>
-      <c r="AGG1" s="12"/>
-      <c r="AGH1" s="12"/>
-      <c r="AGI1" s="12"/>
-      <c r="AGJ1" s="12"/>
-      <c r="AGK1" s="12"/>
-      <c r="AGL1" s="12"/>
-      <c r="AGM1" s="12"/>
-      <c r="AGN1" s="12"/>
-      <c r="AGO1" s="12"/>
-      <c r="AGP1" s="12"/>
-      <c r="AGQ1" s="12"/>
-      <c r="AGR1" s="12"/>
-      <c r="AGS1" s="12"/>
-      <c r="AGT1" s="12"/>
-      <c r="AGU1" s="12"/>
-      <c r="AGV1" s="12"/>
-      <c r="AGW1" s="12"/>
-      <c r="AGX1" s="12"/>
-      <c r="AGY1" s="12"/>
-      <c r="AGZ1" s="12"/>
-      <c r="AHA1" s="12"/>
-      <c r="AHB1" s="12"/>
-      <c r="AHC1" s="12"/>
-      <c r="AHD1" s="12"/>
-      <c r="AHE1" s="12"/>
-      <c r="AHF1" s="12"/>
-      <c r="AHG1" s="12"/>
-      <c r="AHH1" s="12"/>
-      <c r="AHI1" s="12"/>
-      <c r="AHJ1" s="12"/>
-      <c r="AHK1" s="12"/>
-      <c r="AHL1" s="12"/>
-      <c r="AHM1" s="12"/>
-      <c r="AHN1" s="12"/>
-      <c r="AHO1" s="12"/>
-      <c r="AHP1" s="12"/>
-      <c r="AHQ1" s="12"/>
-      <c r="AHR1" s="12"/>
-      <c r="AHS1" s="12"/>
-      <c r="AHT1" s="12"/>
-      <c r="AHU1" s="12"/>
-      <c r="AHV1" s="12"/>
-      <c r="AHW1" s="12"/>
-      <c r="AHX1" s="12"/>
-      <c r="AHY1" s="12"/>
-      <c r="AHZ1" s="12"/>
-      <c r="AIA1" s="12"/>
-      <c r="AIB1" s="12"/>
-      <c r="AIC1" s="12"/>
-      <c r="AID1" s="12"/>
-      <c r="AIE1" s="12"/>
-      <c r="AIF1" s="12"/>
-      <c r="AIG1" s="12"/>
-      <c r="AIH1" s="12"/>
-      <c r="AII1" s="12"/>
-      <c r="AIJ1" s="12"/>
-      <c r="AIK1" s="12"/>
-      <c r="AIL1" s="12"/>
-      <c r="AIM1" s="12"/>
-      <c r="AIN1" s="12"/>
-      <c r="AIO1" s="12"/>
-      <c r="AIP1" s="12"/>
-      <c r="AIQ1" s="12"/>
-      <c r="AIR1" s="12"/>
-      <c r="AIS1" s="12"/>
-      <c r="AIT1" s="12"/>
-      <c r="AIU1" s="12"/>
-      <c r="AIV1" s="12"/>
-      <c r="AIW1" s="12"/>
-      <c r="AIX1" s="12"/>
-      <c r="AIY1" s="12"/>
-      <c r="AIZ1" s="12"/>
-      <c r="AJA1" s="12"/>
-      <c r="AJB1" s="12"/>
-      <c r="AJC1" s="12"/>
-      <c r="AJD1" s="12"/>
-      <c r="AJE1" s="12"/>
-      <c r="AJF1" s="12"/>
-      <c r="AJG1" s="12"/>
-      <c r="AJH1" s="12"/>
-      <c r="AJI1" s="12"/>
-      <c r="AJJ1" s="12"/>
-      <c r="AJK1" s="12"/>
-      <c r="AJL1" s="12"/>
-      <c r="AJM1" s="12"/>
-      <c r="AJN1" s="12"/>
-      <c r="AJO1" s="12"/>
-      <c r="AJP1" s="12"/>
-      <c r="AJQ1" s="12"/>
-      <c r="AJR1" s="12"/>
-      <c r="AJS1" s="12"/>
-      <c r="AJT1" s="12"/>
-      <c r="AJU1" s="12"/>
-      <c r="AJV1" s="12"/>
-      <c r="AJW1" s="12"/>
-      <c r="AJX1" s="12"/>
-      <c r="AJY1" s="12"/>
-      <c r="AJZ1" s="12"/>
-      <c r="AKA1" s="12"/>
-      <c r="AKB1" s="12"/>
-      <c r="AKC1" s="12"/>
-      <c r="AKD1" s="12"/>
-      <c r="AKE1" s="12"/>
-      <c r="AKF1" s="12"/>
-      <c r="AKG1" s="12"/>
-      <c r="AKH1" s="12"/>
-      <c r="AKI1" s="12"/>
-      <c r="AKJ1" s="12"/>
-      <c r="AKK1" s="12"/>
-      <c r="AKL1" s="12"/>
-      <c r="AKM1" s="12"/>
-      <c r="AKN1" s="12"/>
-      <c r="AKO1" s="12"/>
-      <c r="AKP1" s="12"/>
-      <c r="AKQ1" s="12"/>
-      <c r="AKR1" s="12"/>
-      <c r="AKS1" s="12"/>
-      <c r="AKT1" s="12"/>
-      <c r="AKU1" s="12"/>
-      <c r="AKV1" s="12"/>
-      <c r="AKW1" s="12"/>
-      <c r="AKX1" s="12"/>
-      <c r="AKY1" s="12"/>
-      <c r="AKZ1" s="12"/>
-      <c r="ALA1" s="12"/>
-      <c r="ALB1" s="12"/>
-      <c r="ALC1" s="12"/>
-      <c r="ALD1" s="12"/>
-      <c r="ALE1" s="12"/>
-      <c r="ALF1" s="12"/>
-      <c r="ALG1" s="12"/>
-      <c r="ALH1" s="12"/>
-      <c r="ALI1" s="12"/>
-      <c r="ALJ1" s="12"/>
-      <c r="ALK1" s="12"/>
-      <c r="ALL1" s="12"/>
-      <c r="ALM1" s="12"/>
-      <c r="ALN1" s="12"/>
-      <c r="ALO1" s="12"/>
-      <c r="ALP1" s="12"/>
-      <c r="ALQ1" s="12"/>
-      <c r="ALR1" s="12"/>
-      <c r="ALS1" s="12"/>
-      <c r="ALT1" s="12"/>
-      <c r="ALU1" s="12"/>
-      <c r="ALV1" s="12"/>
-      <c r="ALW1" s="12"/>
-      <c r="ALX1" s="12"/>
-      <c r="ALY1" s="12"/>
-      <c r="ALZ1" s="12"/>
-      <c r="AMA1" s="12"/>
-      <c r="AMB1" s="12"/>
-      <c r="AMC1" s="12"/>
-      <c r="AMD1" s="12"/>
-      <c r="AME1" s="12"/>
-      <c r="AMF1" s="12"/>
-      <c r="AMG1" s="12"/>
-      <c r="AMH1" s="12"/>
-      <c r="AMI1" s="12"/>
-    </row>
-    <row r="2" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A2" s="13" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="11"/>
-      <c r="N2" s="13" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
-      <c r="W2" s="12"/>
-      <c r="X2" s="12"/>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
-      <c r="AA2" s="12"/>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12"/>
-      <c r="AJ2" s="12"/>
-      <c r="AK2" s="12"/>
-      <c r="AL2" s="12"/>
-      <c r="AM2" s="12"/>
-      <c r="AN2" s="12"/>
-      <c r="AO2" s="12"/>
-      <c r="AP2" s="12"/>
-      <c r="AQ2" s="12"/>
-      <c r="AR2" s="12"/>
-      <c r="AS2" s="12"/>
-      <c r="AT2" s="12"/>
-      <c r="AU2" s="12"/>
-      <c r="AV2" s="12"/>
-      <c r="AW2" s="12"/>
-      <c r="AX2" s="12"/>
-      <c r="AY2" s="12"/>
-      <c r="AZ2" s="12"/>
-      <c r="BA2" s="12"/>
-      <c r="BB2" s="12"/>
-      <c r="BC2" s="12"/>
-      <c r="BD2" s="12"/>
-      <c r="BE2" s="12"/>
-      <c r="BF2" s="12"/>
-      <c r="BG2" s="12"/>
-      <c r="BH2" s="12"/>
-      <c r="BI2" s="12"/>
-      <c r="BJ2" s="12"/>
-      <c r="BK2" s="12"/>
-      <c r="BL2" s="12"/>
-      <c r="BM2" s="12"/>
-      <c r="BN2" s="12"/>
-      <c r="BO2" s="12"/>
-      <c r="BP2" s="12"/>
-      <c r="BQ2" s="12"/>
-      <c r="BR2" s="12"/>
-      <c r="BS2" s="12"/>
-      <c r="BT2" s="12"/>
-      <c r="BU2" s="12"/>
-      <c r="BV2" s="12"/>
-      <c r="BW2" s="12"/>
-      <c r="BX2" s="12"/>
-      <c r="BY2" s="12"/>
-      <c r="BZ2" s="12"/>
-      <c r="CA2" s="12"/>
-      <c r="CB2" s="12"/>
-      <c r="CC2" s="12"/>
-      <c r="CD2" s="12"/>
-      <c r="CE2" s="12"/>
-      <c r="CF2" s="12"/>
-      <c r="CG2" s="12"/>
-      <c r="CH2" s="12"/>
-      <c r="CI2" s="12"/>
-      <c r="CJ2" s="12"/>
-      <c r="CK2" s="12"/>
-      <c r="CL2" s="12"/>
-      <c r="CM2" s="12"/>
-      <c r="CN2" s="12"/>
-      <c r="CO2" s="12"/>
-      <c r="CP2" s="12"/>
-      <c r="CQ2" s="12"/>
-      <c r="CR2" s="12"/>
-      <c r="CS2" s="12"/>
-      <c r="CT2" s="12"/>
-      <c r="CU2" s="12"/>
-      <c r="CV2" s="12"/>
-      <c r="CW2" s="12"/>
-      <c r="CX2" s="12"/>
-      <c r="CY2" s="12"/>
-      <c r="CZ2" s="12"/>
-      <c r="DA2" s="12"/>
-      <c r="DB2" s="12"/>
-      <c r="DC2" s="12"/>
-      <c r="DD2" s="12"/>
-      <c r="DE2" s="12"/>
-      <c r="DF2" s="12"/>
-      <c r="DG2" s="12"/>
-      <c r="DH2" s="12"/>
-      <c r="DI2" s="12"/>
-      <c r="DJ2" s="12"/>
-      <c r="DK2" s="12"/>
-      <c r="DL2" s="12"/>
-      <c r="DM2" s="12"/>
-      <c r="DN2" s="12"/>
-      <c r="DO2" s="12"/>
-      <c r="DP2" s="12"/>
-      <c r="DQ2" s="12"/>
-      <c r="DR2" s="12"/>
-      <c r="DS2" s="12"/>
-      <c r="DT2" s="12"/>
-      <c r="DU2" s="12"/>
-      <c r="DV2" s="12"/>
-      <c r="DW2" s="12"/>
-      <c r="DX2" s="12"/>
-      <c r="DY2" s="12"/>
-      <c r="DZ2" s="12"/>
-      <c r="EA2" s="12"/>
-      <c r="EB2" s="12"/>
-      <c r="EC2" s="12"/>
-      <c r="ED2" s="12"/>
-      <c r="EE2" s="12"/>
-      <c r="EF2" s="12"/>
-      <c r="EG2" s="12"/>
-      <c r="EH2" s="12"/>
-      <c r="EI2" s="12"/>
-      <c r="EJ2" s="12"/>
-      <c r="EK2" s="12"/>
-      <c r="EL2" s="12"/>
-      <c r="EM2" s="12"/>
-      <c r="EN2" s="12"/>
-      <c r="EO2" s="12"/>
-      <c r="EP2" s="12"/>
-      <c r="EQ2" s="12"/>
-      <c r="ER2" s="12"/>
-      <c r="ES2" s="12"/>
-      <c r="ET2" s="12"/>
-      <c r="EU2" s="12"/>
-      <c r="EV2" s="12"/>
-      <c r="EW2" s="12"/>
-      <c r="EX2" s="12"/>
-      <c r="EY2" s="12"/>
-      <c r="EZ2" s="12"/>
-      <c r="FA2" s="12"/>
-      <c r="FB2" s="12"/>
-      <c r="FC2" s="12"/>
-      <c r="FD2" s="12"/>
-      <c r="FE2" s="12"/>
-      <c r="FF2" s="12"/>
-      <c r="FG2" s="12"/>
-      <c r="FH2" s="12"/>
-      <c r="FI2" s="12"/>
-      <c r="FJ2" s="12"/>
-      <c r="FK2" s="12"/>
-      <c r="FL2" s="12"/>
-      <c r="FM2" s="12"/>
-      <c r="FN2" s="12"/>
-      <c r="FO2" s="12"/>
-      <c r="FP2" s="12"/>
-      <c r="FQ2" s="12"/>
-      <c r="FR2" s="12"/>
-      <c r="FS2" s="12"/>
-      <c r="FT2" s="12"/>
-      <c r="FU2" s="12"/>
-      <c r="FV2" s="12"/>
-      <c r="FW2" s="12"/>
-      <c r="FX2" s="12"/>
-      <c r="FY2" s="12"/>
-      <c r="FZ2" s="12"/>
-      <c r="GA2" s="12"/>
-      <c r="GB2" s="12"/>
-      <c r="GC2" s="12"/>
-      <c r="GD2" s="12"/>
-      <c r="GE2" s="12"/>
-      <c r="GF2" s="12"/>
-      <c r="GG2" s="12"/>
-      <c r="GH2" s="12"/>
-      <c r="GI2" s="12"/>
-      <c r="GJ2" s="12"/>
-      <c r="GK2" s="12"/>
-      <c r="GL2" s="12"/>
-      <c r="GM2" s="12"/>
-      <c r="GN2" s="12"/>
-      <c r="GO2" s="12"/>
-      <c r="GP2" s="12"/>
-      <c r="GQ2" s="12"/>
-      <c r="GR2" s="12"/>
-      <c r="GS2" s="12"/>
-      <c r="GT2" s="12"/>
-      <c r="GU2" s="12"/>
-      <c r="GV2" s="12"/>
-      <c r="GW2" s="12"/>
-      <c r="GX2" s="12"/>
-      <c r="GY2" s="12"/>
-      <c r="GZ2" s="12"/>
-      <c r="HA2" s="12"/>
-      <c r="HB2" s="12"/>
-      <c r="HC2" s="12"/>
-      <c r="HD2" s="12"/>
-      <c r="HE2" s="12"/>
-      <c r="HF2" s="12"/>
-      <c r="HG2" s="12"/>
-      <c r="HH2" s="12"/>
-      <c r="HI2" s="12"/>
-      <c r="HJ2" s="12"/>
-      <c r="HK2" s="12"/>
-      <c r="HL2" s="12"/>
-      <c r="HM2" s="12"/>
-      <c r="HN2" s="12"/>
-      <c r="HO2" s="12"/>
-      <c r="HP2" s="12"/>
-      <c r="HQ2" s="12"/>
-      <c r="HR2" s="12"/>
-      <c r="HS2" s="12"/>
-      <c r="HT2" s="12"/>
-      <c r="HU2" s="12"/>
-      <c r="HV2" s="12"/>
-      <c r="HW2" s="12"/>
-      <c r="HX2" s="12"/>
-      <c r="HY2" s="12"/>
-      <c r="HZ2" s="12"/>
-      <c r="IA2" s="12"/>
-      <c r="IB2" s="12"/>
-      <c r="IC2" s="12"/>
-      <c r="ID2" s="12"/>
-      <c r="IE2" s="12"/>
-      <c r="IF2" s="12"/>
-      <c r="IG2" s="12"/>
-      <c r="IH2" s="12"/>
-      <c r="II2" s="12"/>
-      <c r="IJ2" s="12"/>
-      <c r="IK2" s="12"/>
-      <c r="IL2" s="12"/>
-      <c r="IM2" s="12"/>
-      <c r="IN2" s="12"/>
-      <c r="IO2" s="12"/>
-      <c r="IP2" s="12"/>
-      <c r="IQ2" s="12"/>
-      <c r="IR2" s="12"/>
-      <c r="IS2" s="12"/>
-      <c r="IT2" s="12"/>
-      <c r="IU2" s="12"/>
-      <c r="IV2" s="12"/>
-      <c r="IW2" s="12"/>
-      <c r="IX2" s="12"/>
-      <c r="IY2" s="12"/>
-      <c r="IZ2" s="12"/>
-      <c r="JA2" s="12"/>
-      <c r="JB2" s="12"/>
-      <c r="JC2" s="12"/>
-      <c r="JD2" s="12"/>
-      <c r="JE2" s="12"/>
-      <c r="JF2" s="12"/>
-      <c r="JG2" s="12"/>
-      <c r="JH2" s="12"/>
-      <c r="JI2" s="12"/>
-      <c r="JJ2" s="12"/>
-      <c r="JK2" s="12"/>
-      <c r="JL2" s="12"/>
-      <c r="JM2" s="12"/>
-      <c r="JN2" s="12"/>
-      <c r="JO2" s="12"/>
-      <c r="JP2" s="12"/>
-      <c r="JQ2" s="12"/>
-      <c r="JR2" s="12"/>
-      <c r="JS2" s="12"/>
-      <c r="JT2" s="12"/>
-      <c r="JU2" s="12"/>
-      <c r="JV2" s="12"/>
-      <c r="JW2" s="12"/>
-      <c r="JX2" s="12"/>
-      <c r="JY2" s="12"/>
-      <c r="JZ2" s="12"/>
-      <c r="KA2" s="12"/>
-      <c r="KB2" s="12"/>
-      <c r="KC2" s="12"/>
-      <c r="KD2" s="12"/>
-      <c r="KE2" s="12"/>
-      <c r="KF2" s="12"/>
-      <c r="KG2" s="12"/>
-      <c r="KH2" s="12"/>
-      <c r="KI2" s="12"/>
-      <c r="KJ2" s="12"/>
-      <c r="KK2" s="12"/>
-      <c r="KL2" s="12"/>
-      <c r="KM2" s="12"/>
-      <c r="KN2" s="12"/>
-      <c r="KO2" s="12"/>
-      <c r="KP2" s="12"/>
-      <c r="KQ2" s="12"/>
-      <c r="KR2" s="12"/>
-      <c r="KS2" s="12"/>
-      <c r="KT2" s="12"/>
-      <c r="KU2" s="12"/>
-      <c r="KV2" s="12"/>
-      <c r="KW2" s="12"/>
-      <c r="KX2" s="12"/>
-      <c r="KY2" s="12"/>
-      <c r="KZ2" s="12"/>
-      <c r="LA2" s="12"/>
-      <c r="LB2" s="12"/>
-      <c r="LC2" s="12"/>
-      <c r="LD2" s="12"/>
-      <c r="LE2" s="12"/>
-      <c r="LF2" s="12"/>
-      <c r="LG2" s="12"/>
-      <c r="LH2" s="12"/>
-      <c r="LI2" s="12"/>
-      <c r="LJ2" s="12"/>
-      <c r="LK2" s="12"/>
-      <c r="LL2" s="12"/>
-      <c r="LM2" s="12"/>
-      <c r="LN2" s="12"/>
-      <c r="LO2" s="12"/>
-      <c r="LP2" s="12"/>
-      <c r="LQ2" s="12"/>
-      <c r="LR2" s="12"/>
-      <c r="LS2" s="12"/>
-      <c r="LT2" s="12"/>
-      <c r="LU2" s="12"/>
-      <c r="LV2" s="12"/>
-      <c r="LW2" s="12"/>
-      <c r="LX2" s="12"/>
-      <c r="LY2" s="12"/>
-      <c r="LZ2" s="12"/>
-      <c r="MA2" s="12"/>
-      <c r="MB2" s="12"/>
-      <c r="MC2" s="12"/>
-      <c r="MD2" s="12"/>
-      <c r="ME2" s="12"/>
-      <c r="MF2" s="12"/>
-      <c r="MG2" s="12"/>
-      <c r="MH2" s="12"/>
-      <c r="MI2" s="12"/>
-      <c r="MJ2" s="12"/>
-      <c r="MK2" s="12"/>
-      <c r="ML2" s="12"/>
-      <c r="MM2" s="12"/>
-      <c r="MN2" s="12"/>
-      <c r="MO2" s="12"/>
-      <c r="MP2" s="12"/>
-      <c r="MQ2" s="12"/>
-      <c r="MR2" s="12"/>
-      <c r="MS2" s="12"/>
-      <c r="MT2" s="12"/>
-      <c r="MU2" s="12"/>
-      <c r="MV2" s="12"/>
-      <c r="MW2" s="12"/>
-      <c r="MX2" s="12"/>
-      <c r="MY2" s="12"/>
-      <c r="MZ2" s="12"/>
-      <c r="NA2" s="12"/>
-      <c r="NB2" s="12"/>
-      <c r="NC2" s="12"/>
-      <c r="ND2" s="12"/>
-      <c r="NE2" s="12"/>
-      <c r="NF2" s="12"/>
-      <c r="NG2" s="12"/>
-      <c r="NH2" s="12"/>
-      <c r="NI2" s="12"/>
-      <c r="NJ2" s="12"/>
-      <c r="NK2" s="12"/>
-      <c r="NL2" s="12"/>
-      <c r="NM2" s="12"/>
-      <c r="NN2" s="12"/>
-      <c r="NO2" s="12"/>
-      <c r="NP2" s="12"/>
-      <c r="NQ2" s="12"/>
-      <c r="NR2" s="12"/>
-      <c r="NS2" s="12"/>
-      <c r="NT2" s="12"/>
-      <c r="NU2" s="12"/>
-      <c r="NV2" s="12"/>
-      <c r="NW2" s="12"/>
-      <c r="NX2" s="12"/>
-      <c r="NY2" s="12"/>
-      <c r="NZ2" s="12"/>
-      <c r="OA2" s="12"/>
-      <c r="OB2" s="12"/>
-      <c r="OC2" s="12"/>
-      <c r="OD2" s="12"/>
-      <c r="OE2" s="12"/>
-      <c r="OF2" s="12"/>
-      <c r="OG2" s="12"/>
-      <c r="OH2" s="12"/>
-      <c r="OI2" s="12"/>
-      <c r="OJ2" s="12"/>
-      <c r="OK2" s="12"/>
-      <c r="OL2" s="12"/>
-      <c r="OM2" s="12"/>
-      <c r="ON2" s="12"/>
-      <c r="OO2" s="12"/>
-      <c r="OP2" s="12"/>
-      <c r="OQ2" s="12"/>
-      <c r="OR2" s="12"/>
-      <c r="OS2" s="12"/>
-      <c r="OT2" s="12"/>
-      <c r="OU2" s="12"/>
-      <c r="OV2" s="12"/>
-      <c r="OW2" s="12"/>
-      <c r="OX2" s="12"/>
-      <c r="OY2" s="12"/>
-      <c r="OZ2" s="12"/>
-      <c r="PA2" s="12"/>
-      <c r="PB2" s="12"/>
-      <c r="PC2" s="12"/>
-      <c r="PD2" s="12"/>
-      <c r="PE2" s="12"/>
-      <c r="PF2" s="12"/>
-      <c r="PG2" s="12"/>
-      <c r="PH2" s="12"/>
-      <c r="PI2" s="12"/>
-      <c r="PJ2" s="12"/>
-      <c r="PK2" s="12"/>
-      <c r="PL2" s="12"/>
-      <c r="PM2" s="12"/>
-      <c r="PN2" s="12"/>
-      <c r="PO2" s="12"/>
-      <c r="PP2" s="12"/>
-      <c r="PQ2" s="12"/>
-      <c r="PR2" s="12"/>
-      <c r="PS2" s="12"/>
-      <c r="PT2" s="12"/>
-      <c r="PU2" s="12"/>
-      <c r="PV2" s="12"/>
-      <c r="PW2" s="12"/>
-      <c r="PX2" s="12"/>
-      <c r="PY2" s="12"/>
-      <c r="PZ2" s="12"/>
-      <c r="QA2" s="12"/>
-      <c r="QB2" s="12"/>
-      <c r="QC2" s="12"/>
-      <c r="QD2" s="12"/>
-      <c r="QE2" s="12"/>
-      <c r="QF2" s="12"/>
-      <c r="QG2" s="12"/>
-      <c r="QH2" s="12"/>
-      <c r="QI2" s="12"/>
-      <c r="QJ2" s="12"/>
-      <c r="QK2" s="12"/>
-      <c r="QL2" s="12"/>
-      <c r="QM2" s="12"/>
-      <c r="QN2" s="12"/>
-      <c r="QO2" s="12"/>
-      <c r="QP2" s="12"/>
-      <c r="QQ2" s="12"/>
-      <c r="QR2" s="12"/>
-      <c r="QS2" s="12"/>
-      <c r="QT2" s="12"/>
-      <c r="QU2" s="12"/>
-      <c r="QV2" s="12"/>
-      <c r="QW2" s="12"/>
-      <c r="QX2" s="12"/>
-      <c r="QY2" s="12"/>
-      <c r="QZ2" s="12"/>
-      <c r="RA2" s="12"/>
-      <c r="RB2" s="12"/>
-      <c r="RC2" s="12"/>
-      <c r="RD2" s="12"/>
-      <c r="RE2" s="12"/>
-      <c r="RF2" s="12"/>
-      <c r="RG2" s="12"/>
-      <c r="RH2" s="12"/>
-      <c r="RI2" s="12"/>
-      <c r="RJ2" s="12"/>
-      <c r="RK2" s="12"/>
-      <c r="RL2" s="12"/>
-      <c r="RM2" s="12"/>
-      <c r="RN2" s="12"/>
-      <c r="RO2" s="12"/>
-      <c r="RP2" s="12"/>
-      <c r="RQ2" s="12"/>
-      <c r="RR2" s="12"/>
-      <c r="RS2" s="12"/>
-      <c r="RT2" s="12"/>
-      <c r="RU2" s="12"/>
-      <c r="RV2" s="12"/>
-      <c r="RW2" s="12"/>
-      <c r="RX2" s="12"/>
-      <c r="RY2" s="12"/>
-      <c r="RZ2" s="12"/>
-      <c r="SA2" s="12"/>
-      <c r="SB2" s="12"/>
-      <c r="SC2" s="12"/>
-      <c r="SD2" s="12"/>
-      <c r="SE2" s="12"/>
-      <c r="SF2" s="12"/>
-      <c r="SG2" s="12"/>
-      <c r="SH2" s="12"/>
-      <c r="SI2" s="12"/>
-      <c r="SJ2" s="12"/>
-      <c r="SK2" s="12"/>
-      <c r="SL2" s="12"/>
-      <c r="SM2" s="12"/>
-      <c r="SN2" s="12"/>
-      <c r="SO2" s="12"/>
-      <c r="SP2" s="12"/>
-      <c r="SQ2" s="12"/>
-      <c r="SR2" s="12"/>
-      <c r="SS2" s="12"/>
-      <c r="ST2" s="12"/>
-      <c r="SU2" s="12"/>
-      <c r="SV2" s="12"/>
-      <c r="SW2" s="12"/>
-      <c r="SX2" s="12"/>
-      <c r="SY2" s="12"/>
-      <c r="SZ2" s="12"/>
-      <c r="TA2" s="12"/>
-      <c r="TB2" s="12"/>
-      <c r="TC2" s="12"/>
-      <c r="TD2" s="12"/>
-      <c r="TE2" s="12"/>
-      <c r="TF2" s="12"/>
-      <c r="TG2" s="12"/>
-      <c r="TH2" s="12"/>
-      <c r="TI2" s="12"/>
-      <c r="TJ2" s="12"/>
-      <c r="TK2" s="12"/>
-      <c r="TL2" s="12"/>
-      <c r="TM2" s="12"/>
-      <c r="TN2" s="12"/>
-      <c r="TO2" s="12"/>
-      <c r="TP2" s="12"/>
-      <c r="TQ2" s="12"/>
-      <c r="TR2" s="12"/>
-      <c r="TS2" s="12"/>
-      <c r="TT2" s="12"/>
-      <c r="TU2" s="12"/>
-      <c r="TV2" s="12"/>
-      <c r="TW2" s="12"/>
-      <c r="TX2" s="12"/>
-      <c r="TY2" s="12"/>
-      <c r="TZ2" s="12"/>
-      <c r="UA2" s="12"/>
-      <c r="UB2" s="12"/>
-      <c r="UC2" s="12"/>
-      <c r="UD2" s="12"/>
-      <c r="UE2" s="12"/>
-      <c r="UF2" s="12"/>
-      <c r="UG2" s="12"/>
-      <c r="UH2" s="12"/>
-      <c r="UI2" s="12"/>
-      <c r="UJ2" s="12"/>
-      <c r="UK2" s="12"/>
-      <c r="UL2" s="12"/>
-      <c r="UM2" s="12"/>
-      <c r="UN2" s="12"/>
-      <c r="UO2" s="12"/>
-      <c r="UP2" s="12"/>
-      <c r="UQ2" s="12"/>
-      <c r="UR2" s="12"/>
-      <c r="US2" s="12"/>
-      <c r="UT2" s="12"/>
-      <c r="UU2" s="12"/>
-      <c r="UV2" s="12"/>
-      <c r="UW2" s="12"/>
-      <c r="UX2" s="12"/>
-      <c r="UY2" s="12"/>
-      <c r="UZ2" s="12"/>
-      <c r="VA2" s="12"/>
-      <c r="VB2" s="12"/>
-      <c r="VC2" s="12"/>
-      <c r="VD2" s="12"/>
-      <c r="VE2" s="12"/>
-      <c r="VF2" s="12"/>
-      <c r="VG2" s="12"/>
-      <c r="VH2" s="12"/>
-      <c r="VI2" s="12"/>
-      <c r="VJ2" s="12"/>
-      <c r="VK2" s="12"/>
-      <c r="VL2" s="12"/>
-      <c r="VM2" s="12"/>
-      <c r="VN2" s="12"/>
-      <c r="VO2" s="12"/>
-      <c r="VP2" s="12"/>
-      <c r="VQ2" s="12"/>
-      <c r="VR2" s="12"/>
-      <c r="VS2" s="12"/>
-      <c r="VT2" s="12"/>
-      <c r="VU2" s="12"/>
-      <c r="VV2" s="12"/>
-      <c r="VW2" s="12"/>
-      <c r="VX2" s="12"/>
-      <c r="VY2" s="12"/>
-      <c r="VZ2" s="12"/>
-      <c r="WA2" s="12"/>
-      <c r="WB2" s="12"/>
-      <c r="WC2" s="12"/>
-      <c r="WD2" s="12"/>
-      <c r="WE2" s="12"/>
-      <c r="WF2" s="12"/>
-      <c r="WG2" s="12"/>
-      <c r="WH2" s="12"/>
-      <c r="WI2" s="12"/>
-      <c r="WJ2" s="12"/>
-      <c r="WK2" s="12"/>
-      <c r="WL2" s="12"/>
-      <c r="WM2" s="12"/>
-      <c r="WN2" s="12"/>
-      <c r="WO2" s="12"/>
-      <c r="WP2" s="12"/>
-      <c r="WQ2" s="12"/>
-      <c r="WR2" s="12"/>
-      <c r="WS2" s="12"/>
-      <c r="WT2" s="12"/>
-      <c r="WU2" s="12"/>
-      <c r="WV2" s="12"/>
-      <c r="WW2" s="12"/>
-      <c r="WX2" s="12"/>
-      <c r="WY2" s="12"/>
-      <c r="WZ2" s="12"/>
-      <c r="XA2" s="12"/>
-      <c r="XB2" s="12"/>
-      <c r="XC2" s="12"/>
-      <c r="XD2" s="12"/>
-      <c r="XE2" s="12"/>
-      <c r="XF2" s="12"/>
-      <c r="XG2" s="12"/>
-      <c r="XH2" s="12"/>
-      <c r="XI2" s="12"/>
-      <c r="XJ2" s="12"/>
-      <c r="XK2" s="12"/>
-      <c r="XL2" s="12"/>
-      <c r="XM2" s="12"/>
-      <c r="XN2" s="12"/>
-      <c r="XO2" s="12"/>
-      <c r="XP2" s="12"/>
-      <c r="XQ2" s="12"/>
-      <c r="XR2" s="12"/>
-      <c r="XS2" s="12"/>
-      <c r="XT2" s="12"/>
-      <c r="XU2" s="12"/>
-      <c r="XV2" s="12"/>
-      <c r="XW2" s="12"/>
-      <c r="XX2" s="12"/>
-      <c r="XY2" s="12"/>
-      <c r="XZ2" s="12"/>
-      <c r="YA2" s="12"/>
-      <c r="YB2" s="12"/>
-      <c r="YC2" s="12"/>
-      <c r="YD2" s="12"/>
-      <c r="YE2" s="12"/>
-      <c r="YF2" s="12"/>
-      <c r="YG2" s="12"/>
-      <c r="YH2" s="12"/>
-      <c r="YI2" s="12"/>
-      <c r="YJ2" s="12"/>
-      <c r="YK2" s="12"/>
-      <c r="YL2" s="12"/>
-      <c r="YM2" s="12"/>
-      <c r="YN2" s="12"/>
-      <c r="YO2" s="12"/>
-      <c r="YP2" s="12"/>
-      <c r="YQ2" s="12"/>
-      <c r="YR2" s="12"/>
-      <c r="YS2" s="12"/>
-      <c r="YT2" s="12"/>
-      <c r="YU2" s="12"/>
-      <c r="YV2" s="12"/>
-      <c r="YW2" s="12"/>
-      <c r="YX2" s="12"/>
-      <c r="YY2" s="12"/>
-      <c r="YZ2" s="12"/>
-      <c r="ZA2" s="12"/>
-      <c r="ZB2" s="12"/>
-      <c r="ZC2" s="12"/>
-      <c r="ZD2" s="12"/>
-      <c r="ZE2" s="12"/>
-      <c r="ZF2" s="12"/>
-      <c r="ZG2" s="12"/>
-      <c r="ZH2" s="12"/>
-      <c r="ZI2" s="12"/>
-      <c r="ZJ2" s="12"/>
-      <c r="ZK2" s="12"/>
-      <c r="ZL2" s="12"/>
-      <c r="ZM2" s="12"/>
-      <c r="ZN2" s="12"/>
-      <c r="ZO2" s="12"/>
-      <c r="ZP2" s="12"/>
-      <c r="ZQ2" s="12"/>
-      <c r="ZR2" s="12"/>
-      <c r="ZS2" s="12"/>
-      <c r="ZT2" s="12"/>
-      <c r="ZU2" s="12"/>
-      <c r="ZV2" s="12"/>
-      <c r="ZW2" s="12"/>
-      <c r="ZX2" s="12"/>
-      <c r="ZY2" s="12"/>
-      <c r="ZZ2" s="12"/>
-      <c r="AAA2" s="12"/>
-      <c r="AAB2" s="12"/>
-      <c r="AAC2" s="12"/>
-      <c r="AAD2" s="12"/>
-      <c r="AAE2" s="12"/>
-      <c r="AAF2" s="12"/>
-      <c r="AAG2" s="12"/>
-      <c r="AAH2" s="12"/>
-      <c r="AAI2" s="12"/>
-      <c r="AAJ2" s="12"/>
-      <c r="AAK2" s="12"/>
-      <c r="AAL2" s="12"/>
-      <c r="AAM2" s="12"/>
-      <c r="AAN2" s="12"/>
-      <c r="AAO2" s="12"/>
-      <c r="AAP2" s="12"/>
-      <c r="AAQ2" s="12"/>
-      <c r="AAR2" s="12"/>
-      <c r="AAS2" s="12"/>
-      <c r="AAT2" s="12"/>
-      <c r="AAU2" s="12"/>
-      <c r="AAV2" s="12"/>
-      <c r="AAW2" s="12"/>
-      <c r="AAX2" s="12"/>
-      <c r="AAY2" s="12"/>
-      <c r="AAZ2" s="12"/>
-      <c r="ABA2" s="12"/>
-      <c r="ABB2" s="12"/>
-      <c r="ABC2" s="12"/>
-      <c r="ABD2" s="12"/>
-      <c r="ABE2" s="12"/>
-      <c r="ABF2" s="12"/>
-      <c r="ABG2" s="12"/>
-      <c r="ABH2" s="12"/>
-      <c r="ABI2" s="12"/>
-      <c r="ABJ2" s="12"/>
-      <c r="ABK2" s="12"/>
-      <c r="ABL2" s="12"/>
-      <c r="ABM2" s="12"/>
-      <c r="ABN2" s="12"/>
-      <c r="ABO2" s="12"/>
-      <c r="ABP2" s="12"/>
-      <c r="ABQ2" s="12"/>
-      <c r="ABR2" s="12"/>
-      <c r="ABS2" s="12"/>
-      <c r="ABT2" s="12"/>
-      <c r="ABU2" s="12"/>
-      <c r="ABV2" s="12"/>
-      <c r="ABW2" s="12"/>
-      <c r="ABX2" s="12"/>
-      <c r="ABY2" s="12"/>
-      <c r="ABZ2" s="12"/>
-      <c r="ACA2" s="12"/>
-      <c r="ACB2" s="12"/>
-      <c r="ACC2" s="12"/>
-      <c r="ACD2" s="12"/>
-      <c r="ACE2" s="12"/>
-      <c r="ACF2" s="12"/>
-      <c r="ACG2" s="12"/>
-      <c r="ACH2" s="12"/>
-      <c r="ACI2" s="12"/>
-      <c r="ACJ2" s="12"/>
-      <c r="ACK2" s="12"/>
-      <c r="ACL2" s="12"/>
-      <c r="ACM2" s="12"/>
-      <c r="ACN2" s="12"/>
-      <c r="ACO2" s="12"/>
-      <c r="ACP2" s="12"/>
-      <c r="ACQ2" s="12"/>
-      <c r="ACR2" s="12"/>
-      <c r="ACS2" s="12"/>
-      <c r="ACT2" s="12"/>
-      <c r="ACU2" s="12"/>
-      <c r="ACV2" s="12"/>
-      <c r="ACW2" s="12"/>
-      <c r="ACX2" s="12"/>
-      <c r="ACY2" s="12"/>
-      <c r="ACZ2" s="12"/>
-      <c r="ADA2" s="12"/>
-      <c r="ADB2" s="12"/>
-      <c r="ADC2" s="12"/>
-      <c r="ADD2" s="12"/>
-      <c r="ADE2" s="12"/>
-      <c r="ADF2" s="12"/>
-      <c r="ADG2" s="12"/>
-      <c r="ADH2" s="12"/>
-      <c r="ADI2" s="12"/>
-      <c r="ADJ2" s="12"/>
-      <c r="ADK2" s="12"/>
-      <c r="ADL2" s="12"/>
-      <c r="ADM2" s="12"/>
-      <c r="ADN2" s="12"/>
-      <c r="ADO2" s="12"/>
-      <c r="ADP2" s="12"/>
-      <c r="ADQ2" s="12"/>
-      <c r="ADR2" s="12"/>
-      <c r="ADS2" s="12"/>
-      <c r="ADT2" s="12"/>
-      <c r="ADU2" s="12"/>
-      <c r="ADV2" s="12"/>
-      <c r="ADW2" s="12"/>
-      <c r="ADX2" s="12"/>
-      <c r="ADY2" s="12"/>
-      <c r="ADZ2" s="12"/>
-      <c r="AEA2" s="12"/>
-      <c r="AEB2" s="12"/>
-      <c r="AEC2" s="12"/>
-      <c r="AED2" s="12"/>
-      <c r="AEE2" s="12"/>
-      <c r="AEF2" s="12"/>
-      <c r="AEG2" s="12"/>
-      <c r="AEH2" s="12"/>
-      <c r="AEI2" s="12"/>
-      <c r="AEJ2" s="12"/>
-      <c r="AEK2" s="12"/>
-      <c r="AEL2" s="12"/>
-      <c r="AEM2" s="12"/>
-      <c r="AEN2" s="12"/>
-      <c r="AEO2" s="12"/>
-      <c r="AEP2" s="12"/>
-      <c r="AEQ2" s="12"/>
-      <c r="AER2" s="12"/>
-      <c r="AES2" s="12"/>
-      <c r="AET2" s="12"/>
-      <c r="AEU2" s="12"/>
-      <c r="AEV2" s="12"/>
-      <c r="AEW2" s="12"/>
-      <c r="AEX2" s="12"/>
-      <c r="AEY2" s="12"/>
-      <c r="AEZ2" s="12"/>
-      <c r="AFA2" s="12"/>
-      <c r="AFB2" s="12"/>
-      <c r="AFC2" s="12"/>
-      <c r="AFD2" s="12"/>
-      <c r="AFE2" s="12"/>
-      <c r="AFF2" s="12"/>
-      <c r="AFG2" s="12"/>
-      <c r="AFH2" s="12"/>
-      <c r="AFI2" s="12"/>
-      <c r="AFJ2" s="12"/>
-      <c r="AFK2" s="12"/>
-      <c r="AFL2" s="12"/>
-      <c r="AFM2" s="12"/>
-      <c r="AFN2" s="12"/>
-      <c r="AFO2" s="12"/>
-      <c r="AFP2" s="12"/>
-      <c r="AFQ2" s="12"/>
-      <c r="AFR2" s="12"/>
-      <c r="AFS2" s="12"/>
-      <c r="AFT2" s="12"/>
-      <c r="AFU2" s="12"/>
-      <c r="AFV2" s="12"/>
-      <c r="AFW2" s="12"/>
-      <c r="AFX2" s="12"/>
-      <c r="AFY2" s="12"/>
-      <c r="AFZ2" s="12"/>
-      <c r="AGA2" s="12"/>
-      <c r="AGB2" s="12"/>
-      <c r="AGC2" s="12"/>
-      <c r="AGD2" s="12"/>
-      <c r="AGE2" s="12"/>
-      <c r="AGF2" s="12"/>
-      <c r="AGG2" s="12"/>
-      <c r="AGH2" s="12"/>
-      <c r="AGI2" s="12"/>
-      <c r="AGJ2" s="12"/>
-      <c r="AGK2" s="12"/>
-      <c r="AGL2" s="12"/>
-      <c r="AGM2" s="12"/>
-      <c r="AGN2" s="12"/>
-      <c r="AGO2" s="12"/>
-      <c r="AGP2" s="12"/>
-      <c r="AGQ2" s="12"/>
-      <c r="AGR2" s="12"/>
-      <c r="AGS2" s="12"/>
-      <c r="AGT2" s="12"/>
-      <c r="AGU2" s="12"/>
-      <c r="AGV2" s="12"/>
-      <c r="AGW2" s="12"/>
-      <c r="AGX2" s="12"/>
-      <c r="AGY2" s="12"/>
-      <c r="AGZ2" s="12"/>
-      <c r="AHA2" s="12"/>
-      <c r="AHB2" s="12"/>
-      <c r="AHC2" s="12"/>
-      <c r="AHD2" s="12"/>
-      <c r="AHE2" s="12"/>
-      <c r="AHF2" s="12"/>
-      <c r="AHG2" s="12"/>
-      <c r="AHH2" s="12"/>
-      <c r="AHI2" s="12"/>
-      <c r="AHJ2" s="12"/>
-      <c r="AHK2" s="12"/>
-      <c r="AHL2" s="12"/>
-      <c r="AHM2" s="12"/>
-      <c r="AHN2" s="12"/>
-      <c r="AHO2" s="12"/>
-      <c r="AHP2" s="12"/>
-      <c r="AHQ2" s="12"/>
-      <c r="AHR2" s="12"/>
-      <c r="AHS2" s="12"/>
-      <c r="AHT2" s="12"/>
-      <c r="AHU2" s="12"/>
-      <c r="AHV2" s="12"/>
-      <c r="AHW2" s="12"/>
-      <c r="AHX2" s="12"/>
-      <c r="AHY2" s="12"/>
-      <c r="AHZ2" s="12"/>
-      <c r="AIA2" s="12"/>
-      <c r="AIB2" s="12"/>
-      <c r="AIC2" s="12"/>
-      <c r="AID2" s="12"/>
-      <c r="AIE2" s="12"/>
-      <c r="AIF2" s="12"/>
-      <c r="AIG2" s="12"/>
-      <c r="AIH2" s="12"/>
-      <c r="AII2" s="12"/>
-      <c r="AIJ2" s="12"/>
-      <c r="AIK2" s="12"/>
-      <c r="AIL2" s="12"/>
-      <c r="AIM2" s="12"/>
-      <c r="AIN2" s="12"/>
-      <c r="AIO2" s="12"/>
-      <c r="AIP2" s="12"/>
-      <c r="AIQ2" s="12"/>
-      <c r="AIR2" s="12"/>
-      <c r="AIS2" s="12"/>
-      <c r="AIT2" s="12"/>
-      <c r="AIU2" s="12"/>
-      <c r="AIV2" s="12"/>
-      <c r="AIW2" s="12"/>
-      <c r="AIX2" s="12"/>
-      <c r="AIY2" s="12"/>
-      <c r="AIZ2" s="12"/>
-      <c r="AJA2" s="12"/>
-      <c r="AJB2" s="12"/>
-      <c r="AJC2" s="12"/>
-      <c r="AJD2" s="12"/>
-      <c r="AJE2" s="12"/>
-      <c r="AJF2" s="12"/>
-      <c r="AJG2" s="12"/>
-      <c r="AJH2" s="12"/>
-      <c r="AJI2" s="12"/>
-      <c r="AJJ2" s="12"/>
-      <c r="AJK2" s="12"/>
-      <c r="AJL2" s="12"/>
-      <c r="AJM2" s="12"/>
-      <c r="AJN2" s="12"/>
-      <c r="AJO2" s="12"/>
-      <c r="AJP2" s="12"/>
-      <c r="AJQ2" s="12"/>
-      <c r="AJR2" s="12"/>
-      <c r="AJS2" s="12"/>
-      <c r="AJT2" s="12"/>
-      <c r="AJU2" s="12"/>
-      <c r="AJV2" s="12"/>
-      <c r="AJW2" s="12"/>
-      <c r="AJX2" s="12"/>
-      <c r="AJY2" s="12"/>
-      <c r="AJZ2" s="12"/>
-      <c r="AKA2" s="12"/>
-      <c r="AKB2" s="12"/>
-      <c r="AKC2" s="12"/>
-      <c r="AKD2" s="12"/>
-      <c r="AKE2" s="12"/>
-      <c r="AKF2" s="12"/>
-      <c r="AKG2" s="12"/>
-      <c r="AKH2" s="12"/>
-      <c r="AKI2" s="12"/>
-      <c r="AKJ2" s="12"/>
-      <c r="AKK2" s="12"/>
-      <c r="AKL2" s="12"/>
-      <c r="AKM2" s="12"/>
-      <c r="AKN2" s="12"/>
-      <c r="AKO2" s="12"/>
-      <c r="AKP2" s="12"/>
-      <c r="AKQ2" s="12"/>
-      <c r="AKR2" s="12"/>
-      <c r="AKS2" s="12"/>
-      <c r="AKT2" s="12"/>
-      <c r="AKU2" s="12"/>
-      <c r="AKV2" s="12"/>
-      <c r="AKW2" s="12"/>
-      <c r="AKX2" s="12"/>
-      <c r="AKY2" s="12"/>
-      <c r="AKZ2" s="12"/>
-      <c r="ALA2" s="12"/>
-      <c r="ALB2" s="12"/>
-      <c r="ALC2" s="12"/>
-      <c r="ALD2" s="12"/>
-      <c r="ALE2" s="12"/>
-      <c r="ALF2" s="12"/>
-      <c r="ALG2" s="12"/>
-      <c r="ALH2" s="12"/>
-      <c r="ALI2" s="12"/>
-      <c r="ALJ2" s="12"/>
-      <c r="ALK2" s="12"/>
-      <c r="ALL2" s="12"/>
-      <c r="ALM2" s="12"/>
-      <c r="ALN2" s="12"/>
-      <c r="ALO2" s="12"/>
-      <c r="ALP2" s="12"/>
-      <c r="ALQ2" s="12"/>
-      <c r="ALR2" s="12"/>
-      <c r="ALS2" s="12"/>
-      <c r="ALT2" s="12"/>
-      <c r="ALU2" s="12"/>
-      <c r="ALV2" s="12"/>
-      <c r="ALW2" s="12"/>
-      <c r="ALX2" s="12"/>
-      <c r="ALY2" s="12"/>
-      <c r="ALZ2" s="12"/>
-      <c r="AMA2" s="12"/>
-      <c r="AMB2" s="12"/>
-      <c r="AMC2" s="12"/>
-      <c r="AMD2" s="12"/>
-      <c r="AME2" s="12"/>
-      <c r="AMF2" s="12"/>
-      <c r="AMG2" s="12"/>
-      <c r="AMH2" s="12"/>
-      <c r="AMI2" s="12"/>
-    </row>
-    <row r="3" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A3" s="11">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="7">
         <v>20</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="7">
         <v>1000</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="7">
         <v>0.96372800000000003</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="7">
         <v>28</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <v>251</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="7">
         <v>40</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="7">
         <v>1209.56</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="7">
         <v>5</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="7">
         <v>22.9817</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="7">
         <v>1</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11">
+      <c r="K3" s="7"/>
+      <c r="L3" s="7">
         <v>74</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11">
+      <c r="M3" s="7"/>
+      <c r="N3" s="7">
         <v>30</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="7">
         <v>1000</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="7">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A4" s="11">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="7">
         <v>20</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="7">
         <v>1010</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="7">
         <v>0.97450599999999998</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="7">
         <v>10</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <v>168</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>22</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="7">
         <v>1162.56</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="7">
         <v>8</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="7">
         <v>28.071400000000001</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="7">
         <v>2</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11">
+      <c r="K4" s="7"/>
+      <c r="L4" s="7">
         <v>42</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11">
+      <c r="M4" s="7"/>
+      <c r="N4" s="7">
         <v>40</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="7">
         <v>1000</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="7">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A5" s="11">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="7">
         <v>20</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="7">
         <v>1020</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="7">
         <v>0.97170599999999996</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="7">
         <v>17</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <v>218</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="7">
         <v>34</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <v>1126.99</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="7">
         <v>9</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="7">
         <v>30.391500000000001</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="7">
         <v>7</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11">
+      <c r="K5" s="7"/>
+      <c r="L5" s="7">
         <v>67</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11">
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
         <v>20</v>
       </c>
-      <c r="O5" s="11">
+      <c r="O5" s="7">
         <v>1010</v>
       </c>
-      <c r="P5" s="11">
+      <c r="P5" s="7">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A6" s="11">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="7">
         <v>20</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="7">
         <v>1030</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="7">
         <v>0.95819299999999996</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="7">
         <v>35</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="7">
         <v>272</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <v>42</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <v>1053.9100000000001</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="7">
         <v>18</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="7">
         <v>32.336300000000001</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="7">
         <v>8</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11">
+      <c r="K6" s="7"/>
+      <c r="L6" s="7">
         <v>103</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11">
+      <c r="M6" s="7"/>
+      <c r="N6" s="7">
         <v>50</v>
       </c>
-      <c r="O6" s="11">
+      <c r="O6" s="7">
         <v>1000</v>
       </c>
-      <c r="P6" s="11">
+      <c r="P6" s="7">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A7" s="11">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="7">
         <v>20</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="7">
         <v>1040</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="7">
         <v>0.95272999999999997</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="7">
         <v>39</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="7">
         <v>17</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="7">
         <v>2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <v>131.501</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="7">
         <v>36</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="7">
         <v>59.496000000000002</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="7">
         <v>16</v>
       </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7">
         <v>93</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7">
         <v>60</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="7">
         <v>1010</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="7">
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A8" s="11">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="7">
         <v>20</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="7">
         <v>1050</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="7">
         <v>0.97248800000000002</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="7">
         <v>13</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="7">
         <v>170</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>24</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <v>46.354999999999997</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="7">
         <v>46</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="7">
         <v>968.61800000000005</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="7">
         <v>46</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11">
+      <c r="K8" s="7"/>
+      <c r="L8" s="7">
         <v>129</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11">
+      <c r="M8" s="7"/>
+      <c r="N8" s="7">
         <v>20</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="7">
         <v>1020</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="7">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A9" s="11">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="7">
         <v>20</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="7">
         <v>1060</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="7">
         <v>0.96115799999999996</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="7">
         <v>31</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="7">
         <v>245</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="7">
         <v>38</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <v>59.365200000000002</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="7">
         <v>42</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="7">
         <v>946.52800000000002</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="7">
         <v>43</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7">
         <v>154</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11">
+      <c r="M9" s="7"/>
+      <c r="N9" s="7">
         <v>20</v>
       </c>
-      <c r="O9" s="11">
+      <c r="O9" s="7">
         <v>1080</v>
       </c>
-      <c r="P9" s="11">
+      <c r="P9" s="7">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A10" s="11">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="7">
         <v>20</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="7">
         <v>1070</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="7">
         <v>0.96308700000000003</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="7">
         <v>30</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="7">
         <v>251</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="7">
         <v>41</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="7">
         <v>39.6188</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="7">
         <v>49</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="7">
         <v>959.21799999999996</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="7">
         <v>45</v>
       </c>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11">
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
         <v>165</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11">
+      <c r="M10" s="7"/>
+      <c r="N10" s="7">
         <v>30</v>
       </c>
-      <c r="O10" s="11">
+      <c r="O10" s="7">
         <v>1010</v>
       </c>
-      <c r="P10" s="11">
+      <c r="P10" s="7">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A11" s="11">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="7">
         <v>20</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="7">
         <v>1080</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="7">
         <v>0.98177199999999998</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="7">
         <v>3</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="7">
         <v>93</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>11</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>929.51</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="7">
         <v>31</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="7">
         <v>72.750500000000002</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="7">
         <v>23</v>
       </c>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11">
+      <c r="K11" s="7"/>
+      <c r="L11" s="7">
         <v>68</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7">
         <v>30</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="7">
         <v>1020</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="7">
         <v>69</v>
       </c>
     </row>
-    <row r="12" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A12" s="11">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="7">
         <v>20</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="7">
         <v>1090</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="7">
         <v>0.98089999999999999</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="7">
         <v>5</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="7">
         <v>84</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="7">
         <v>9</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="7">
         <v>63.146099999999997</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="7">
         <v>41</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="7">
         <v>1047.1300000000001</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="7">
         <v>48</v>
       </c>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11">
+      <c r="K12" s="7"/>
+      <c r="L12" s="7">
         <v>103</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11">
+      <c r="M12" s="7"/>
+      <c r="N12" s="7">
         <v>50</v>
       </c>
-      <c r="O12" s="11">
+      <c r="O12" s="7">
         <v>1010</v>
       </c>
-      <c r="P12" s="11">
+      <c r="P12" s="7">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A13" s="11">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="7">
         <v>30</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="7">
         <v>1000</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="7">
         <v>0.97875299999999998</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="7">
         <v>7</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="7">
         <v>93</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="7">
         <v>12</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <v>1210.8900000000001</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="7">
         <v>4</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <v>36.761600000000001</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="7">
         <v>14</v>
       </c>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11">
+      <c r="K13" s="7"/>
+      <c r="L13" s="7">
         <v>37</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11">
+      <c r="M13" s="7"/>
+      <c r="N13" s="15">
         <v>20</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="15">
         <v>1000</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="7">
         <v>74</v>
       </c>
-    </row>
-    <row r="14" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A14" s="11">
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="7">
         <v>30</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="7">
         <v>1010</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <v>0.96887800000000002</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="7">
         <v>21</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="7">
         <v>195</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="7">
         <v>30</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="7">
         <v>1091.83</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="7">
         <v>12</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="7">
         <v>30.315899999999999</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="7">
         <v>6</v>
       </c>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11">
+      <c r="K14" s="7"/>
+      <c r="L14" s="7">
         <v>69</v>
       </c>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11">
+      <c r="M14" s="7"/>
+      <c r="N14" s="7">
         <v>30</v>
       </c>
-      <c r="O14" s="11">
+      <c r="O14" s="7">
         <v>1080</v>
       </c>
-      <c r="P14" s="11">
+      <c r="P14" s="7">
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A15" s="11">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="7">
         <v>30</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="7">
         <v>1020</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="7">
         <v>0.97240800000000005</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="7">
         <v>14</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="7">
         <v>203</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="7">
         <v>32</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <v>1111.73</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="7">
         <v>10</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="7">
         <v>36.164900000000003</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="7">
         <v>13</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11">
+      <c r="K15" s="7"/>
+      <c r="L15" s="7">
         <v>69</v>
       </c>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11">
+      <c r="M15" s="7"/>
+      <c r="N15" s="7">
         <v>60</v>
       </c>
-      <c r="O15" s="11">
+      <c r="O15" s="7">
         <v>1030</v>
       </c>
-      <c r="P15" s="11">
+      <c r="P15" s="7">
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:1023" x14ac:dyDescent="0.35">
-      <c r="A16" s="11">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="7">
         <v>30</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="7">
         <v>1030</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="7">
         <v>0.94943500000000003</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="7">
         <v>40</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="7">
         <v>285</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="7">
         <v>43</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="7">
         <v>797.96299999999997</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="7">
         <v>33</v>
       </c>
-      <c r="I16" s="11">
+      <c r="I16" s="7">
         <v>59.625799999999998</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="7">
         <v>17</v>
       </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11">
+      <c r="K16" s="7"/>
+      <c r="L16" s="7">
         <v>133</v>
       </c>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11">
+      <c r="M16" s="7"/>
+      <c r="N16" s="7">
         <v>40</v>
       </c>
-      <c r="O16" s="11">
+      <c r="O16" s="7">
         <v>1070</v>
       </c>
-      <c r="P16" s="11">
+      <c r="P16" s="7">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A17" s="11">
+      <c r="A17" s="7">
         <v>30</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="7">
         <v>1040</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="7">
         <v>0.91192899999999999</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="7">
         <v>46</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="7">
         <v>19</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="7">
         <v>3</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <v>80.006399999999999</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="7">
         <v>39</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="7">
         <v>86.023300000000006</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="7">
         <v>29</v>
       </c>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11">
+      <c r="K17" s="7"/>
+      <c r="L17" s="7">
         <v>117</v>
       </c>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11">
+      <c r="M17" s="7"/>
+      <c r="N17" s="7">
         <v>60</v>
       </c>
-      <c r="O17" s="11">
+      <c r="O17" s="7">
         <v>1000</v>
       </c>
-      <c r="P17" s="11">
+      <c r="P17" s="7">
         <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A18" s="11">
+      <c r="A18" s="7">
         <v>30</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="7">
         <v>1050</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="7">
         <v>0.96737300000000004</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="7">
         <v>24</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="7">
         <v>237</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="7">
         <v>36</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="7">
         <v>1038.9000000000001</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="7">
         <v>19</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="7">
         <v>65.173599999999993</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="7">
         <v>19</v>
       </c>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11">
+      <c r="K18" s="7"/>
+      <c r="L18" s="7">
         <v>98</v>
       </c>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11">
+      <c r="M18" s="7"/>
+      <c r="N18" s="7">
         <v>60</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="7">
         <v>1040</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="7">
         <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A19" s="11">
+      <c r="A19" s="7">
         <v>30</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B19" s="7">
         <v>1060</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="7">
         <v>0.96940499999999996</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D19" s="7">
         <v>20</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="7">
         <v>175</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="7">
         <v>25</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="7">
         <v>1000.03</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="7">
         <v>21</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="7">
         <v>75.758799999999994</v>
       </c>
-      <c r="J19" s="11">
+      <c r="J19" s="7">
         <v>25</v>
       </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11">
+      <c r="K19" s="7"/>
+      <c r="L19" s="7">
         <v>91</v>
       </c>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11">
+      <c r="M19" s="7"/>
+      <c r="N19" s="7">
         <v>50</v>
       </c>
-      <c r="O19" s="11">
+      <c r="O19" s="7">
         <v>1080</v>
       </c>
-      <c r="P19" s="11">
+      <c r="P19" s="7">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A20" s="11">
+      <c r="A20" s="7">
         <v>30</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="7">
         <v>1070</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="7">
         <v>0.97186799999999995</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="7">
         <v>16</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="7">
         <v>181</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="7">
         <v>26</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="7">
         <v>82.589699999999993</v>
       </c>
-      <c r="H20" s="11">
+      <c r="H20" s="7">
         <v>38</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="7">
         <v>955.48800000000006</v>
       </c>
-      <c r="J20" s="11">
+      <c r="J20" s="7">
         <v>44</v>
       </c>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11">
+      <c r="K20" s="7"/>
+      <c r="L20" s="7">
         <v>124</v>
       </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11">
+      <c r="M20" s="7"/>
+      <c r="N20" s="7">
         <v>30</v>
       </c>
-      <c r="O20" s="11">
+      <c r="O20" s="7">
         <v>1060</v>
       </c>
-      <c r="P20" s="11">
+      <c r="P20" s="7">
         <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A21" s="11">
+      <c r="A21" s="7">
         <v>30</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B21" s="7">
         <v>1080</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="7">
         <v>0.98254600000000003</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D21" s="7">
         <v>2</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="7">
         <v>89</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="7">
         <v>10</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G21" s="7">
         <v>939.18700000000001</v>
       </c>
-      <c r="H21" s="11">
+      <c r="H21" s="7">
         <v>29</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="7">
         <v>115.276</v>
       </c>
-      <c r="J21" s="11">
+      <c r="J21" s="7">
         <v>35</v>
       </c>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11">
+      <c r="K21" s="7"/>
+      <c r="L21" s="7">
         <v>76</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11">
+      <c r="M21" s="7"/>
+      <c r="N21" s="7">
         <v>20</v>
       </c>
-      <c r="O21" s="11">
+      <c r="O21" s="7">
         <v>1040</v>
       </c>
-      <c r="P21" s="11">
+      <c r="P21" s="7">
         <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A22" s="11">
+      <c r="A22" s="7">
         <v>30</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="7">
         <v>1090</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="7">
         <v>0.97552799999999995</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D22" s="7">
         <v>9</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="7">
         <v>94</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="7">
         <v>76.606099999999998</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="7">
         <v>40</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="7">
         <v>1036.8599999999999</v>
       </c>
-      <c r="J22" s="11">
+      <c r="J22" s="7">
         <v>47</v>
       </c>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11">
+      <c r="K22" s="7"/>
+      <c r="L22" s="7">
         <v>109</v>
       </c>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11">
+      <c r="M22" s="7"/>
+      <c r="N22" s="7">
         <v>50</v>
       </c>
-      <c r="O22" s="11">
+      <c r="O22" s="7">
         <v>1030</v>
       </c>
-      <c r="P22" s="11">
+      <c r="P22" s="7">
         <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A23" s="11">
+      <c r="A23" s="7">
         <v>40</v>
       </c>
-      <c r="B23" s="11">
+      <c r="B23" s="7">
         <v>1000</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="7">
         <v>0.97413499999999997</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D23" s="7">
         <v>11</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="7">
         <v>132</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="7">
         <v>18</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="7">
         <v>1217.22</v>
       </c>
-      <c r="H23" s="11">
+      <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="I23" s="11">
+      <c r="I23" s="7">
         <v>33.627000000000002</v>
       </c>
-      <c r="J23" s="11">
+      <c r="J23" s="7">
         <v>10</v>
       </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11">
+      <c r="K23" s="7"/>
+      <c r="L23" s="7">
         <v>40</v>
       </c>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11">
+      <c r="M23" s="7"/>
+      <c r="N23" s="7">
         <v>30</v>
       </c>
-      <c r="O23" s="11">
+      <c r="O23" s="7">
         <v>1050</v>
       </c>
-      <c r="P23" s="11">
+      <c r="P23" s="7">
         <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A24" s="11">
+      <c r="A24" s="7">
         <v>40</v>
       </c>
-      <c r="B24" s="11">
+      <c r="B24" s="7">
         <v>1010</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="7">
         <v>0.97273600000000005</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D24" s="7">
         <v>12</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="7">
         <v>155</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F24" s="7">
         <v>21</v>
       </c>
-      <c r="G24" s="11">
+      <c r="G24" s="7">
         <v>38.976900000000001</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="7">
         <v>50</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="7">
         <v>1180.3699999999999</v>
       </c>
-      <c r="J24" s="11">
+      <c r="J24" s="7">
         <v>50</v>
       </c>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11">
+      <c r="K24" s="7"/>
+      <c r="L24" s="7">
         <v>133</v>
       </c>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11">
+      <c r="M24" s="7"/>
+      <c r="N24" s="7">
         <v>50</v>
       </c>
-      <c r="O24" s="11">
+      <c r="O24" s="7">
         <v>1040</v>
       </c>
-      <c r="P24" s="11">
+      <c r="P24" s="7">
         <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A25" s="11">
+      <c r="A25" s="7">
         <v>40</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="7">
         <v>1020</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="7">
         <v>0.95536100000000002</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="7">
         <v>37</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="7">
         <v>49</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="7">
         <v>6</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G25" s="7">
         <v>58.9407</v>
       </c>
-      <c r="H25" s="11">
+      <c r="H25" s="7">
         <v>43</v>
       </c>
-      <c r="I25" s="11">
+      <c r="I25" s="7">
         <v>218.10599999999999</v>
       </c>
-      <c r="J25" s="11">
+      <c r="J25" s="7">
         <v>42</v>
       </c>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11">
+      <c r="K25" s="7"/>
+      <c r="L25" s="7">
         <v>128</v>
       </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11">
+      <c r="M25" s="7"/>
+      <c r="N25" s="7">
         <v>20</v>
       </c>
-      <c r="O25" s="11">
+      <c r="O25" s="7">
         <v>1030</v>
       </c>
-      <c r="P25" s="11">
+      <c r="P25" s="7">
         <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A26" s="11">
+      <c r="A26" s="7">
         <v>40</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="7">
         <v>1030</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="7">
         <v>0.82826500000000003</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="7">
         <v>48</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="7">
         <v>61</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="7">
         <v>8</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="7">
         <v>51.873600000000003</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="7">
         <v>44</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="7">
         <v>81.933999999999997</v>
       </c>
-      <c r="J26" s="11">
+      <c r="J26" s="7">
         <v>27</v>
       </c>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11">
+      <c r="K26" s="7"/>
+      <c r="L26" s="7">
         <v>127</v>
       </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11">
+      <c r="M26" s="7"/>
+      <c r="N26" s="7">
         <v>20</v>
       </c>
-      <c r="O26" s="11">
+      <c r="O26" s="7">
         <v>1090</v>
       </c>
-      <c r="P26" s="11">
+      <c r="P26" s="7">
         <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A27" s="11">
+      <c r="A27" s="7">
         <v>40</v>
       </c>
-      <c r="B27" s="11">
+      <c r="B27" s="7">
         <v>1040</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="7">
         <v>0.94133199999999995</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="7">
         <v>44</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="7">
         <v>52</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="7">
         <v>7</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G27" s="7">
         <v>134.95699999999999</v>
       </c>
-      <c r="H27" s="11">
+      <c r="H27" s="7">
         <v>35</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="7">
         <v>129.25200000000001</v>
       </c>
-      <c r="J27" s="11">
+      <c r="J27" s="7">
         <v>37</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11">
+      <c r="K27" s="7"/>
+      <c r="L27" s="7">
         <v>123</v>
       </c>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11">
+      <c r="M27" s="7"/>
+      <c r="N27" s="7">
         <v>40</v>
       </c>
-      <c r="O27" s="11">
+      <c r="O27" s="7">
         <v>1090</v>
       </c>
-      <c r="P27" s="11">
+      <c r="P27" s="7">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A28" s="11">
+      <c r="A28" s="7">
         <v>40</v>
       </c>
-      <c r="B28" s="11">
+      <c r="B28" s="7">
         <v>1050</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="7">
         <v>0.83960400000000002</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="7">
         <v>47</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="7">
         <v>12</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="7">
         <v>1</v>
       </c>
-      <c r="G28" s="11">
+      <c r="G28" s="7">
         <v>47.088000000000001</v>
       </c>
-      <c r="H28" s="11">
+      <c r="H28" s="7">
         <v>45</v>
       </c>
-      <c r="I28" s="11">
+      <c r="I28" s="7">
         <v>121.76600000000001</v>
       </c>
-      <c r="J28" s="11">
+      <c r="J28" s="7">
         <v>36</v>
       </c>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11">
+      <c r="K28" s="7"/>
+      <c r="L28" s="7">
         <v>129</v>
       </c>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11">
+      <c r="M28" s="7"/>
+      <c r="N28" s="7">
         <v>50</v>
       </c>
-      <c r="O28" s="11">
+      <c r="O28" s="7">
         <v>1020</v>
       </c>
-      <c r="P28" s="11">
+      <c r="P28" s="7">
         <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A29" s="11">
+      <c r="A29" s="7">
         <v>40</v>
       </c>
-      <c r="B29" s="11">
+      <c r="B29" s="7">
         <v>1060</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="7">
         <v>0.92588300000000001</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="7">
         <v>45</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E29" s="7">
         <v>109</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="7">
         <v>16</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="7">
         <v>241.29599999999999</v>
       </c>
-      <c r="H29" s="11">
+      <c r="H29" s="7">
         <v>34</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="7">
         <v>68.205100000000002</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="7">
         <v>22</v>
       </c>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11">
+      <c r="K29" s="7"/>
+      <c r="L29" s="7">
         <v>117</v>
       </c>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11">
+      <c r="M29" s="7"/>
+      <c r="N29" s="7">
         <v>50</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="7">
         <v>1090</v>
       </c>
-      <c r="P29" s="11">
+      <c r="P29" s="7">
         <v>105</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A30" s="11">
+      <c r="A30" s="7">
         <v>40</v>
       </c>
-      <c r="B30" s="11">
+      <c r="B30" s="7">
         <v>1070</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="7">
         <v>0.97655700000000001</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="7">
         <v>8</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E30" s="7">
         <v>125</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F30" s="7">
         <v>17</v>
       </c>
-      <c r="G30" s="11">
+      <c r="G30" s="7">
         <v>966.49900000000002</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="7">
         <v>24</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="7">
         <v>92.314599999999999</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="7">
         <v>31</v>
       </c>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11">
+      <c r="K30" s="7"/>
+      <c r="L30" s="7">
         <v>80</v>
       </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11">
+      <c r="M30" s="7"/>
+      <c r="N30" s="7">
         <v>60</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="7">
         <v>1020</v>
       </c>
-      <c r="P30" s="11">
+      <c r="P30" s="7">
         <v>108</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A31" s="11">
+      <c r="A31" s="7">
         <v>40</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="7">
         <v>1080</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="7">
         <v>0.96962099999999996</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="7">
         <v>19</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="7">
         <v>200</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="7">
         <v>31</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G31" s="7">
         <v>953.16499999999996</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="7">
         <v>27</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="7">
         <v>110.703</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="7">
         <v>34</v>
       </c>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11">
+      <c r="K31" s="7"/>
+      <c r="L31" s="7">
         <v>111</v>
       </c>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11">
+      <c r="M31" s="7"/>
+      <c r="N31" s="7">
         <v>30</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O31" s="7">
         <v>1090</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P31" s="7">
         <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A32" s="11">
+      <c r="A32" s="7">
         <v>40</v>
       </c>
-      <c r="B32" s="11">
+      <c r="B32" s="7">
         <v>1090</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="7">
         <v>0.98142200000000002</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="7">
         <v>4</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E32" s="7">
         <v>101</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="7">
         <v>14</v>
       </c>
-      <c r="G32" s="11">
+      <c r="G32" s="7">
         <v>93.157200000000003</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="7">
         <v>37</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="7">
         <v>1079.2</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="7">
         <v>49</v>
       </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11">
+      <c r="K32" s="7"/>
+      <c r="L32" s="7">
         <v>104</v>
       </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11">
+      <c r="M32" s="7"/>
+      <c r="N32" s="7">
         <v>40</v>
       </c>
-      <c r="O32" s="11">
+      <c r="O32" s="7">
         <v>1080</v>
       </c>
-      <c r="P32" s="11">
+      <c r="P32" s="7">
         <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A33" s="11">
+      <c r="A33" s="7">
         <v>50</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="7">
         <v>1000</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="7">
         <v>0.97012600000000004</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="7">
         <v>18</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E33" s="7">
         <v>169</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="7">
         <v>23</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G33" s="7">
         <v>1213.06</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="7">
         <v>3</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="7">
         <v>32.471499999999999</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="7">
         <v>9</v>
       </c>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11">
+      <c r="K33" s="7"/>
+      <c r="L33" s="7">
         <v>53</v>
       </c>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11">
+      <c r="M33" s="7"/>
+      <c r="N33" s="7">
         <v>60</v>
       </c>
-      <c r="O33" s="11">
+      <c r="O33" s="7">
         <v>1090</v>
       </c>
-      <c r="P33" s="11">
+      <c r="P33" s="7">
         <v>111</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A34" s="11">
+      <c r="A34" s="7">
         <v>50</v>
       </c>
-      <c r="B34" s="11">
+      <c r="B34" s="7">
         <v>1010</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="7">
         <v>0.96681899999999998</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D34" s="7">
         <v>25</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="7">
         <v>187</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="7">
         <v>28</v>
       </c>
-      <c r="G34" s="11">
+      <c r="G34" s="7">
         <v>1178.3499999999999</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="7">
         <v>7</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="7">
         <v>35.746200000000002</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="7">
         <v>12</v>
       </c>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11">
+      <c r="K34" s="7"/>
+      <c r="L34" s="7">
         <v>72</v>
       </c>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11">
+      <c r="M34" s="7"/>
+      <c r="N34" s="7">
         <v>30</v>
       </c>
-      <c r="O34" s="11">
+      <c r="O34" s="7">
         <v>1040</v>
       </c>
-      <c r="P34" s="11">
+      <c r="P34" s="7">
         <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A35" s="11">
+      <c r="A35" s="7">
         <v>50</v>
       </c>
-      <c r="B35" s="11">
+      <c r="B35" s="7">
         <v>1020</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="7">
         <v>0.81898499999999996</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="7">
         <v>49</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="7">
         <v>26</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="7">
         <v>4</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="7">
         <v>40.1952</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="7">
         <v>47</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="7">
         <v>30.1965</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="7">
         <v>4</v>
       </c>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11">
+      <c r="K35" s="7"/>
+      <c r="L35" s="7">
         <v>104</v>
       </c>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11">
+      <c r="M35" s="7"/>
+      <c r="N35" s="7">
         <v>40</v>
       </c>
-      <c r="O35" s="11">
+      <c r="O35" s="7">
         <v>1060</v>
       </c>
-      <c r="P35" s="11">
+      <c r="P35" s="7">
         <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A36" s="11">
+      <c r="A36" s="7">
         <v>50</v>
       </c>
-      <c r="B36" s="11">
+      <c r="B36" s="7">
         <v>1030</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="7">
         <v>0.96424200000000004</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="7">
         <v>27</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="7">
         <v>221</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="7">
         <v>35</v>
       </c>
-      <c r="G36" s="11">
+      <c r="G36" s="7">
         <v>1079.07</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="7">
         <v>14</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="7">
         <v>65.331999999999994</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="7">
         <v>20</v>
       </c>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11">
+      <c r="K36" s="7"/>
+      <c r="L36" s="7">
         <v>96</v>
       </c>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11">
+      <c r="M36" s="7"/>
+      <c r="N36" s="7">
         <v>50</v>
       </c>
-      <c r="O36" s="11">
+      <c r="O36" s="7">
         <v>1070</v>
       </c>
-      <c r="P36" s="11">
+      <c r="P36" s="7">
         <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A37" s="11">
+      <c r="A37" s="7">
         <v>50</v>
       </c>
-      <c r="B37" s="11">
+      <c r="B37" s="7">
         <v>1040</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="7">
         <v>0.96849499999999999</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="7">
         <v>23</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="7">
         <v>214</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="7">
         <v>33</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G37" s="7">
         <v>1054.25</v>
       </c>
-      <c r="H37" s="11">
+      <c r="H37" s="7">
         <v>17</v>
       </c>
-      <c r="I37" s="11">
+      <c r="I37" s="7">
         <v>82.085300000000004</v>
       </c>
-      <c r="J37" s="11">
+      <c r="J37" s="7">
         <v>28</v>
       </c>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11">
+      <c r="K37" s="7"/>
+      <c r="L37" s="7">
         <v>101</v>
       </c>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11">
+      <c r="M37" s="7"/>
+      <c r="N37" s="7">
         <v>40</v>
       </c>
-      <c r="O37" s="11">
+      <c r="O37" s="7">
         <v>1040</v>
       </c>
-      <c r="P37" s="11">
+      <c r="P37" s="7">
         <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A38" s="11">
+      <c r="A38" s="7">
         <v>50</v>
       </c>
-      <c r="B38" s="11">
+      <c r="B38" s="7">
         <v>1050</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="7">
         <v>0.94791800000000004</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="7">
         <v>42</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E38" s="7">
         <v>396</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="7">
         <v>50</v>
       </c>
-      <c r="G38" s="11">
+      <c r="G38" s="7">
         <v>1014.83</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="7">
         <v>20</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="7">
         <v>51.360900000000001</v>
       </c>
-      <c r="J38" s="11">
+      <c r="J38" s="7">
         <v>15</v>
       </c>
-      <c r="K38" s="11"/>
-      <c r="L38" s="11">
+      <c r="K38" s="7"/>
+      <c r="L38" s="7">
         <v>127</v>
       </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11">
+      <c r="M38" s="7"/>
+      <c r="N38" s="7">
         <v>30</v>
       </c>
-      <c r="O38" s="11">
+      <c r="O38" s="7">
         <v>1070</v>
       </c>
-      <c r="P38" s="11">
+      <c r="P38" s="7">
         <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A39" s="11">
+      <c r="A39" s="7">
         <v>50</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="7">
         <v>1060</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="7">
         <v>0.95328999999999997</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="7">
         <v>38</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="7">
         <v>334</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="7">
         <v>47</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G39" s="7">
         <v>900.41600000000005</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="7">
         <v>32</v>
       </c>
-      <c r="I39" s="11">
+      <c r="I39" s="7">
         <v>63.535699999999999</v>
       </c>
-      <c r="J39" s="11">
+      <c r="J39" s="7">
         <v>18</v>
       </c>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11">
+      <c r="K39" s="7"/>
+      <c r="L39" s="7">
         <v>135</v>
       </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11">
+      <c r="M39" s="7"/>
+      <c r="N39" s="7">
         <v>40</v>
       </c>
-      <c r="O39" s="11">
+      <c r="O39" s="7">
         <v>1030</v>
       </c>
-      <c r="P39" s="11">
+      <c r="P39" s="7">
         <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A40" s="11">
+      <c r="A40" s="7">
         <v>50</v>
       </c>
-      <c r="B40" s="11">
+      <c r="B40" s="7">
         <v>1070</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="7">
         <v>0.96558500000000003</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="7">
         <v>26</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E40" s="7">
         <v>245</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="7">
         <v>39</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="7">
         <v>975.55700000000002</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="7">
         <v>22</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="7">
         <v>93.9863</v>
       </c>
-      <c r="J40" s="11">
+      <c r="J40" s="7">
         <v>32</v>
       </c>
-      <c r="K40" s="11"/>
-      <c r="L40" s="11">
+      <c r="K40" s="7"/>
+      <c r="L40" s="7">
         <v>119</v>
       </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11">
+      <c r="M40" s="7"/>
+      <c r="N40" s="7">
         <v>50</v>
       </c>
-      <c r="O40" s="11">
+      <c r="O40" s="7">
         <v>1050</v>
       </c>
-      <c r="P40" s="11">
+      <c r="P40" s="7">
         <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A41" s="11">
+      <c r="A41" s="7">
         <v>50</v>
       </c>
-      <c r="B41" s="11">
+      <c r="B41" s="7">
         <v>1080</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="7">
         <v>0.984182</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="7">
         <v>1</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E41" s="7">
         <v>104</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="7">
         <v>15</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G41" s="7">
         <v>933.274</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="7">
         <v>30</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="7">
         <v>166.392</v>
       </c>
-      <c r="J41" s="11">
+      <c r="J41" s="7">
         <v>39</v>
       </c>
-      <c r="K41" s="11"/>
-      <c r="L41" s="11">
+      <c r="K41" s="7"/>
+      <c r="L41" s="7">
         <v>85</v>
       </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11">
+      <c r="M41" s="7"/>
+      <c r="N41" s="7">
         <v>40</v>
       </c>
-      <c r="O41" s="11">
+      <c r="O41" s="7">
         <v>1020</v>
       </c>
-      <c r="P41" s="11">
+      <c r="P41" s="7">
         <v>128</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A42" s="11">
+      <c r="A42" s="7">
         <v>50</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="7">
         <v>1090</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="7">
         <v>0.96113099999999996</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="7">
         <v>32</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E42" s="7">
         <v>244</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="7">
         <v>37</v>
       </c>
-      <c r="G42" s="11">
+      <c r="G42" s="7">
         <v>1078.6500000000001</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="7">
         <v>15</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="7">
         <v>66.327500000000001</v>
       </c>
-      <c r="J42" s="11">
+      <c r="J42" s="7">
         <v>21</v>
       </c>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11">
+      <c r="K42" s="7"/>
+      <c r="L42" s="7">
         <v>105</v>
       </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11">
+      <c r="M42" s="7"/>
+      <c r="N42" s="7">
         <v>20</v>
       </c>
-      <c r="O42" s="11">
+      <c r="O42" s="7">
         <v>1050</v>
       </c>
-      <c r="P42" s="11">
+      <c r="P42" s="7">
         <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A43" s="11">
+      <c r="A43" s="7">
         <v>60</v>
       </c>
-      <c r="B43" s="11">
+      <c r="B43" s="7">
         <v>1000</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="7">
         <v>0.95923099999999994</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="7">
         <v>33</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E43" s="7">
         <v>292</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="7">
         <v>44</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G43" s="7">
         <v>1217.22</v>
       </c>
-      <c r="H43" s="11">
+      <c r="H43" s="7">
         <v>2</v>
       </c>
-      <c r="I43" s="11">
+      <c r="I43" s="7">
         <v>29.7197</v>
       </c>
-      <c r="J43" s="11">
+      <c r="J43" s="7">
         <v>3</v>
       </c>
-      <c r="K43" s="11"/>
-      <c r="L43" s="11">
+      <c r="K43" s="7"/>
+      <c r="L43" s="7">
         <v>82</v>
       </c>
-      <c r="M43" s="11"/>
-      <c r="N43" s="11">
+      <c r="M43" s="7"/>
+      <c r="N43" s="7">
         <v>40</v>
       </c>
-      <c r="O43" s="11">
+      <c r="O43" s="7">
         <v>1050</v>
       </c>
-      <c r="P43" s="11">
+      <c r="P43" s="7">
         <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A44" s="11">
+      <c r="A44" s="7">
         <v>60</v>
       </c>
-      <c r="B44" s="11">
+      <c r="B44" s="7">
         <v>1010</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="7">
         <v>0.968638</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D44" s="7">
         <v>22</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E44" s="7">
         <v>134</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F44" s="7">
         <v>19</v>
       </c>
-      <c r="G44" s="11">
+      <c r="G44" s="7">
         <v>1184.06</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="7">
         <v>6</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="7">
         <v>35.562600000000003</v>
       </c>
-      <c r="J44" s="11">
+      <c r="J44" s="7">
         <v>11</v>
       </c>
-      <c r="K44" s="11"/>
-      <c r="L44" s="11">
+      <c r="K44" s="7"/>
+      <c r="L44" s="7">
         <v>58</v>
       </c>
-      <c r="M44" s="11"/>
-      <c r="N44" s="11">
+      <c r="M44" s="7"/>
+      <c r="N44" s="7">
         <v>60</v>
       </c>
-      <c r="O44" s="11">
+      <c r="O44" s="7">
         <v>1070</v>
       </c>
-      <c r="P44" s="11">
+      <c r="P44" s="7">
         <v>129</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A45" s="11">
+      <c r="A45" s="7">
         <v>60</v>
       </c>
-      <c r="B45" s="11">
+      <c r="B45" s="7">
         <v>1020</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="7">
         <v>0.81898499999999996</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D45" s="7">
         <v>50</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E45" s="7">
         <v>26</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="7">
         <v>5</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G45" s="7">
         <v>40.1952</v>
       </c>
-      <c r="H45" s="11">
+      <c r="H45" s="7">
         <v>48</v>
       </c>
-      <c r="I45" s="11">
+      <c r="I45" s="7">
         <v>30.1965</v>
       </c>
-      <c r="J45" s="11">
+      <c r="J45" s="7">
         <v>5</v>
       </c>
-      <c r="K45" s="11"/>
-      <c r="L45" s="11">
+      <c r="K45" s="7"/>
+      <c r="L45" s="7">
         <v>108</v>
       </c>
-      <c r="M45" s="11"/>
-      <c r="N45" s="11">
+      <c r="M45" s="7"/>
+      <c r="N45" s="7">
         <v>30</v>
       </c>
-      <c r="O45" s="11">
+      <c r="O45" s="7">
         <v>1030</v>
       </c>
-      <c r="P45" s="11">
+      <c r="P45" s="7">
         <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A46" s="11">
+      <c r="A46" s="7">
         <v>60</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" s="7">
         <v>1030</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="7">
         <v>0.97200399999999998</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D46" s="7">
         <v>15</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E46" s="7">
         <v>182</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="7">
         <v>27</v>
       </c>
-      <c r="G46" s="11">
+      <c r="G46" s="7">
         <v>1101.33</v>
       </c>
-      <c r="H46" s="11">
+      <c r="H46" s="7">
         <v>11</v>
       </c>
-      <c r="I46" s="11">
+      <c r="I46" s="7">
         <v>79.149500000000003</v>
       </c>
-      <c r="J46" s="11">
+      <c r="J46" s="7">
         <v>26</v>
       </c>
-      <c r="K46" s="11"/>
-      <c r="L46" s="11">
+      <c r="K46" s="7"/>
+      <c r="L46" s="7">
         <v>79</v>
       </c>
-      <c r="M46" s="11"/>
-      <c r="N46" s="11">
+      <c r="M46" s="7"/>
+      <c r="N46" s="7">
         <v>40</v>
       </c>
-      <c r="O46" s="11">
+      <c r="O46" s="7">
         <v>1010</v>
       </c>
-      <c r="P46" s="11">
+      <c r="P46" s="7">
         <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A47" s="11">
+      <c r="A47" s="7">
         <v>60</v>
       </c>
-      <c r="B47" s="11">
+      <c r="B47" s="7">
         <v>1040</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="7">
         <v>0.98055999999999999</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D47" s="7">
         <v>6</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E47" s="7">
         <v>135</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="7">
         <v>20</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="7">
         <v>1071.71</v>
       </c>
-      <c r="H47" s="11">
+      <c r="H47" s="7">
         <v>16</v>
       </c>
-      <c r="I47" s="11">
+      <c r="I47" s="7">
         <v>179.489</v>
       </c>
-      <c r="J47" s="11">
+      <c r="J47" s="7">
         <v>41</v>
       </c>
-      <c r="K47" s="11"/>
-      <c r="L47" s="11">
+      <c r="K47" s="7"/>
+      <c r="L47" s="7">
         <v>83</v>
       </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11">
+      <c r="M47" s="7"/>
+      <c r="N47" s="7">
         <v>50</v>
       </c>
-      <c r="O47" s="11">
+      <c r="O47" s="7">
         <v>1060</v>
       </c>
-      <c r="P47" s="11">
+      <c r="P47" s="7">
         <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A48" s="11">
+      <c r="A48" s="7">
         <v>60</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" s="7">
         <v>1050</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="7">
         <v>0.94580299999999995</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D48" s="7">
         <v>43</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E48" s="7">
         <v>386</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="7">
         <v>49</v>
       </c>
-      <c r="G48" s="11">
+      <c r="G48" s="7">
         <v>948.03800000000001</v>
       </c>
-      <c r="H48" s="11">
+      <c r="H48" s="7">
         <v>28</v>
       </c>
-      <c r="I48" s="11">
+      <c r="I48" s="7">
         <v>136.042</v>
       </c>
-      <c r="J48" s="11">
+      <c r="J48" s="7">
         <v>38</v>
       </c>
-      <c r="K48" s="11"/>
-      <c r="L48" s="11">
+      <c r="K48" s="7"/>
+      <c r="L48" s="7">
         <v>158</v>
       </c>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11">
+      <c r="M48" s="7"/>
+      <c r="N48" s="7">
         <v>60</v>
       </c>
-      <c r="O48" s="11">
+      <c r="O48" s="7">
         <v>1080</v>
       </c>
-      <c r="P48" s="11">
+      <c r="P48" s="7">
         <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A49" s="11">
+      <c r="A49" s="7">
         <v>60</v>
       </c>
-      <c r="B49" s="11">
+      <c r="B49" s="7">
         <v>1060</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="7">
         <v>0.94898499999999997</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D49" s="7">
         <v>41</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E49" s="7">
         <v>336</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="7">
         <v>48</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G49" s="7">
         <v>957.79200000000003</v>
       </c>
-      <c r="H49" s="11">
+      <c r="H49" s="7">
         <v>26</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="7">
         <v>90.307900000000004</v>
       </c>
-      <c r="J49" s="11">
+      <c r="J49" s="7">
         <v>30</v>
       </c>
-      <c r="K49" s="11"/>
-      <c r="L49" s="11">
+      <c r="K49" s="7"/>
+      <c r="L49" s="7">
         <v>145</v>
       </c>
-      <c r="M49" s="11"/>
-      <c r="N49" s="11">
+      <c r="M49" s="7"/>
+      <c r="N49" s="7">
         <v>60</v>
       </c>
-      <c r="O49" s="11">
+      <c r="O49" s="7">
         <v>1060</v>
       </c>
-      <c r="P49" s="11">
+      <c r="P49" s="7">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A50" s="11">
+      <c r="A50" s="7">
         <v>60</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="7">
         <v>1070</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="7">
         <v>0.95571700000000004</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D50" s="7">
         <v>36</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="7">
         <v>326</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="7">
         <v>46</v>
       </c>
-      <c r="G50" s="11">
+      <c r="G50" s="7">
         <v>975.37900000000002</v>
       </c>
-      <c r="H50" s="11">
+      <c r="H50" s="7">
         <v>23</v>
       </c>
-      <c r="I50" s="11">
+      <c r="I50" s="7">
         <v>73.124799999999993</v>
       </c>
-      <c r="J50" s="11">
+      <c r="J50" s="7">
         <v>24</v>
       </c>
-      <c r="K50" s="11"/>
-      <c r="L50" s="11">
+      <c r="K50" s="7"/>
+      <c r="L50" s="7">
         <v>129</v>
       </c>
-      <c r="M50" s="11"/>
-      <c r="N50" s="11">
+      <c r="M50" s="7"/>
+      <c r="N50" s="7">
         <v>20</v>
       </c>
-      <c r="O50" s="11">
+      <c r="O50" s="7">
         <v>1060</v>
       </c>
-      <c r="P50" s="11">
+      <c r="P50" s="7">
         <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A51" s="11">
+      <c r="A51" s="7">
         <v>60</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="7">
         <v>1080</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="7">
         <v>0.95884899999999995</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D51" s="7">
         <v>34</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="7">
         <v>298</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="7">
         <v>45</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="7">
         <v>959.79499999999996</v>
       </c>
-      <c r="H51" s="11">
+      <c r="H51" s="7">
         <v>25</v>
       </c>
-      <c r="I51" s="11">
+      <c r="I51" s="7">
         <v>99.697400000000002</v>
       </c>
-      <c r="J51" s="11">
+      <c r="J51" s="7">
         <v>33</v>
       </c>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11">
+      <c r="K51" s="7"/>
+      <c r="L51" s="7">
         <v>137</v>
       </c>
-      <c r="M51" s="11"/>
-      <c r="N51" s="11">
+      <c r="M51" s="7"/>
+      <c r="N51" s="7">
         <v>60</v>
       </c>
-      <c r="O51" s="11">
+      <c r="O51" s="7">
         <v>1050</v>
       </c>
-      <c r="P51" s="11">
+      <c r="P51" s="7">
         <v>158</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A52" s="11">
+      <c r="A52" s="7">
         <v>60</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="7">
         <v>1090</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="7">
         <v>0.963476</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D52" s="7">
         <v>29</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="7">
         <v>193</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="7">
         <v>29</v>
       </c>
-      <c r="G52" s="11">
+      <c r="G52" s="7">
         <v>1088.33</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="7">
         <v>13</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="7">
         <v>172.119</v>
       </c>
-      <c r="J52" s="11">
+      <c r="J52" s="7">
         <v>40</v>
       </c>
-      <c r="K52" s="11"/>
-      <c r="L52" s="11">
+      <c r="K52" s="7"/>
+      <c r="L52" s="7">
         <v>111</v>
       </c>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11">
+      <c r="M52" s="7"/>
+      <c r="N52" s="7">
         <v>20</v>
       </c>
-      <c r="O52" s="11">
+      <c r="O52" s="7">
         <v>1070</v>
       </c>
-      <c r="P52" s="11">
+      <c r="P52" s="7">
         <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.35">
-      <c r="A53" s="11"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="11"/>
-      <c r="F53" s="11"/>
-      <c r="G53" s="11"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
